--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +499,218 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CYRE3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2021110900314681690001-1</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>27938</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44538</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>LREN3</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2021120800319153110001-1</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>74690</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19767</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2021120700318949090001-1</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>54100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2021112400316909650001-1</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2937</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Taxa (%a.a.)</t>
+          <t>Taxa</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -501,10 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44509</v>
+        <v>44538</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44550</v>
+        <v>44580</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>15.09</v>
+        <v>29.45</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CYRE3</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2021110900314681690001-1</t>
+          <t>2021120800319153110001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>27938</v>
+        <v>74690</v>
       </c>
       <c r="M2" t="n">
-        <v>1500</v>
+        <v>46342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>29.45</v>
+        <v>12.62</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021120800319153110001-1</t>
+          <t>2021120700318949090001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>74690</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>19767</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44537</v>
+        <v>44531</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>12.44</v>
       </c>
       <c r="H4" t="n">
-        <v>12.62</v>
+        <v>18.06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>PETZ3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021120700318949090001-1</t>
+          <t>2021120100313890600001-2</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>54100</v>
+        <v>5871</v>
       </c>
       <c r="M4" t="n">
-        <v>2300</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44524</v>
+        <v>44538</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44575</v>
+        <v>44580</v>
       </c>
       <c r="G5" t="n">
-        <v>13.35</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>18.17</v>
+        <v>34.25</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,19 +696,19 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>WEGE3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2021112400316909650001-1</t>
+          <t>2021120800319153120001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2937</v>
+        <v>19608</v>
       </c>
       <c r="M5" t="n">
-        <v>1600</v>
+        <v>4562</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44538</v>
+        <v>44552</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44580</v>
+        <v>44594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="H2" t="n">
-        <v>29.45</v>
+        <v>24.66</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>CSNA3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2021120800319153110001-1</t>
+          <t>2021122200321449750001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>74690</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>46342</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44537</v>
+        <v>44553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44579</v>
+        <v>44595</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>12.62</v>
+        <v>8.92</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021120700318949090001-1</t>
+          <t>2021122300321570800001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>8073</v>
       </c>
       <c r="M3" t="n">
-        <v>3500</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44531</v>
+        <v>44553</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="G4" t="n">
-        <v>12.44</v>
+        <v>0.05</v>
       </c>
       <c r="H4" t="n">
-        <v>18.06</v>
+        <v>8.92</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021120100313890600001-2</t>
+          <t>2021122300321573260001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5871</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>4300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44538</v>
+        <v>44552</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -672,43 +672,361 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.983902</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2021122200321450720001-1</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>761</v>
+      </c>
+      <c r="M5" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>JBSS3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2021122200321450920001-1</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44551</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>44580</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F7" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>WEGE3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2021120800319153120001-1</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>19608</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4562</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2021122100321280090001-1</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>900</v>
+      </c>
+      <c r="M7" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2021122200321527640001-1</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44558</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2021122800313890600001-2</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>671</v>
+      </c>
+      <c r="M9" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44558</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2021122800313890630001-2</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>190</v>
+      </c>
+      <c r="M10" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2021122200308405580001-2</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44552</v>
+        <v>44546</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.42</v>
+        <v>5.35</v>
       </c>
       <c r="H2" t="n">
-        <v>24.66</v>
+        <v>13.35</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CSNA3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2021122200321449750001-1</t>
+          <t>2021121600320368030001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44553</v>
+        <v>44546</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05</v>
+        <v>5.35</v>
       </c>
       <c r="H3" t="n">
-        <v>8.92</v>
+        <v>13.35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021122300321570800001-1</t>
+          <t>2021121600320368060001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8073</v>
+        <v>2100</v>
       </c>
       <c r="M3" t="n">
-        <v>8073</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44553</v>
+        <v>44546</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05</v>
+        <v>5.35</v>
       </c>
       <c r="H4" t="n">
-        <v>8.92</v>
+        <v>13.35</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021122300321573260001-1</t>
+          <t>2021121600320368400001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3800</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44552</v>
+        <v>44546</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>5.35</v>
       </c>
       <c r="H5" t="n">
-        <v>8.983902</v>
+        <v>13.35</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,27 +696,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2021122200321450720001-1</t>
+          <t>2021121600320368460001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>761</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>761</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44552</v>
+        <v>44557</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08</v>
+        <v>4.43</v>
       </c>
       <c r="H6" t="n">
-        <v>37.84</v>
+        <v>13.47</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -749,27 +749,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>JBSS3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2021122200321450920001-1</t>
+          <t>2021122700321886370001-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M6" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44593</v>
+        <v>44599</v>
       </c>
       <c r="G7" t="n">
-        <v>5.54</v>
+        <v>3.99</v>
       </c>
       <c r="H7" t="n">
-        <v>18.07</v>
+        <v>13.23</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2021122100321280090001-1</t>
+          <t>2021122800322194120001-1</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -819,10 +819,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44552</v>
+        <v>44565</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44594</v>
+        <v>44746</v>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>17.56</v>
+        <v>12.81</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2021122200321527640001-1</t>
+          <t>2022010400322937040001-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="M8" t="n">
-        <v>2200</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44558</v>
+        <v>44537</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44592</v>
+        <v>44714</v>
       </c>
       <c r="G9" t="n">
-        <v>4.55</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>16.79</v>
+        <v>12.62</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -908,27 +908,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2021122800313890600001-2</t>
+          <t>2021120700318865580001-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>671</v>
+        <v>1900</v>
       </c>
       <c r="M9" t="n">
-        <v>671</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44558</v>
+        <v>44537</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44592</v>
+        <v>44714</v>
       </c>
       <c r="G10" t="n">
-        <v>4.55</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>16.79</v>
+        <v>12.62</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -961,72 +961,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PETZ3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2021122800313890630001-2</t>
+          <t>2021120700318865590001-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>190</v>
+        <v>3600</v>
       </c>
       <c r="M10" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>44552</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ITAU CV S/A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>PETZ3</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2021122200308405580001-2</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>2400</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44546</v>
+        <v>44599</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44588</v>
+        <v>44641</v>
       </c>
       <c r="G2" t="n">
-        <v>5.35</v>
+        <v>0.41</v>
       </c>
       <c r="H2" t="n">
-        <v>13.35</v>
+        <v>14.4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2021121600320368030001-1</t>
+          <t>2022020700329218690001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1000</v>
+        <v>16294</v>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>16294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44546</v>
+        <v>44573</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44588</v>
+        <v>44624</v>
       </c>
       <c r="G3" t="n">
-        <v>5.35</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>13.35</v>
+        <v>24.92</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>BIDI11</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021121600320368060001-1</t>
+          <t>2022011200324492260001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2100</v>
+        <v>11600</v>
       </c>
       <c r="M3" t="n">
-        <v>2100</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44546</v>
+        <v>44601</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44588</v>
+        <v>44643</v>
       </c>
       <c r="G4" t="n">
-        <v>5.35</v>
+        <v>0.64</v>
       </c>
       <c r="H4" t="n">
-        <v>13.35</v>
+        <v>2.31</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021121600320368400001-1</t>
+          <t>2022020900329699720001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3800</v>
+        <v>1883</v>
       </c>
       <c r="M4" t="n">
-        <v>3800</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44546</v>
+        <v>44601</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44588</v>
+        <v>44643</v>
       </c>
       <c r="G5" t="n">
-        <v>5.35</v>
+        <v>0.64</v>
       </c>
       <c r="H5" t="n">
-        <v>13.35</v>
+        <v>2.31</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,27 +696,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2021121600320368460001-1</t>
+          <t>2022020900329699760001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>217</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44557</v>
+        <v>44599</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44596</v>
+        <v>44641</v>
       </c>
       <c r="G6" t="n">
-        <v>4.43</v>
+        <v>0.64</v>
       </c>
       <c r="H6" t="n">
-        <v>13.47</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -749,27 +749,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2021122700321886370001-1</t>
+          <t>2022020700329218730001-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2700</v>
+        <v>4900</v>
       </c>
       <c r="M6" t="n">
-        <v>2700</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44558</v>
+        <v>44600</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44599</v>
+        <v>44642</v>
       </c>
       <c r="G7" t="n">
-        <v>3.99</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23</v>
+        <v>2.33</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2021122800322194120001-1</t>
+          <t>2022020800329517020001-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>900</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44746</v>
+        <v>44636</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>13.76</v>
       </c>
       <c r="H8" t="n">
-        <v>12.81</v>
+        <v>7.16</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CMIN3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2022010400322937040001-1</t>
+          <t>2022020200328266080001-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4100</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>4100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44537</v>
+        <v>44601</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44714</v>
+        <v>44643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>12.62</v>
+        <v>7.22</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -908,72 +908,2245 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CPLE6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2021120700318865580001-1</t>
+          <t>2022020900329699450001-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M9" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CPLE6</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2022020900329699460001-1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CPLE6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2022020900329699520001-1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>800</v>
+      </c>
+      <c r="M11" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CPLE6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2022020900329699600001-1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>200</v>
+      </c>
+      <c r="M12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CPLE6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2022020900329699670001-1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2179</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CPLE6</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2022020900329699730001-1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>200</v>
+      </c>
+      <c r="M14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CVCB3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2022020900329701060001-1</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CVCB3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2022020900329701070001-1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>200</v>
+      </c>
+      <c r="M16" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CVCB3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2022020800329524100001-1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>EQTL3</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2022020800329513790001-1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022020900329699510001-1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>384</v>
+      </c>
+      <c r="M19" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H20" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2022020900329699640001-1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2022020900329699680001-1</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2022020900329699820001-1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>363</v>
+      </c>
+      <c r="M22" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2022020800329517810001-1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>HYPE3</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2022020900329699480001-1</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>318</v>
+      </c>
+      <c r="M24" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>HYPE3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2022020900329699550001-1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>828</v>
+      </c>
+      <c r="M25" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>IRBR3</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2022020900329699790001-1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>IRBR3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2022020800329524010001-1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>6600</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2022010400322937040001-1</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>4100</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>44537</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>44714</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G29" t="n">
         <v>0.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H29" t="n">
         <v>12.62</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>LWSA3</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>2021120700318865590001-1</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L29" t="n">
         <v>3600</v>
       </c>
-      <c r="M10" t="n">
-        <v>800</v>
+      <c r="M29" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2021120700318865610001-1</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2021120700318865620001-1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2021120700318865630001-1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2021120700318865640001-1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2021120700318865650001-1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>5200</v>
+      </c>
+      <c r="M34" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2022020800329461910001-1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>52500</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2022020800329517690001-1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>53938</v>
+      </c>
+      <c r="M36" t="n">
+        <v>53938</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>45.69</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>RDOR3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2022020900329700930001-1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>607</v>
+      </c>
+      <c r="M37" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H38" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SANB11</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2022020800329517710001-1</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3400</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H39" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2022020800329460970001-1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H40" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2022020800329460980001-1</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H41" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2022020800329461040001-1</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>200</v>
+      </c>
+      <c r="M41" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H42" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2022020800329461080001-1</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>600</v>
+      </c>
+      <c r="M42" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H43" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2022020800329461100001-1</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>200</v>
+      </c>
+      <c r="M43" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H44" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2022020800329461110001-1</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H45" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2022020800329461120001-1</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H46" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VALE3</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2022020700329218930001-1</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>7200</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VIIA3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2022020700329215090001-1</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>5629</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VIIA3</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2022020800329524000001-1</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>6554</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H49" t="n">
+        <v>49</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VIVT3</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2022020800329517730001-1</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2027</v>
+      </c>
+      <c r="M49" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2022020800329517040001-1</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6234</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2022021000329857030001-1</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>7900</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4766</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,15 +549,15 @@
         <v>16294</v>
       </c>
       <c r="M2" t="n">
-        <v>16294</v>
+        <v>15401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44573</v>
+        <v>44607</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44624</v>
+        <v>44649</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>3.84</v>
       </c>
       <c r="H3" t="n">
-        <v>24.92</v>
+        <v>21.01</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BIDI11</t>
+          <t>BBDC4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2022011200324492260001-1</t>
+          <t>2022021500330912880001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>11600</v>
+        <v>2236</v>
       </c>
       <c r="M3" t="n">
-        <v>11600</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44601</v>
+        <v>44573</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44643</v>
+        <v>44624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.31</v>
+        <v>24.92</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CIEL3</t>
+          <t>BIDI11</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2022020900329699720001-1</t>
+          <t>2022011200324492260001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1883</v>
+        <v>11600</v>
       </c>
       <c r="M4" t="n">
-        <v>1883</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.64</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>2.31</v>
+        <v>53.14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,27 +696,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CIEL3</t>
+          <t>BRKM5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2022020900329699760001-1</t>
+          <t>2022020700329218710001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>217</v>
+        <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>217</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="G6" t="n">
         <v>0.64</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -754,22 +754,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2022020700329218730001-1</t>
+          <t>2022020900329699720001-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4900</v>
+        <v>1883</v>
       </c>
       <c r="M6" t="n">
-        <v>4900</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2022020800329517020001-1</t>
+          <t>2022020900329699760001-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>217</v>
       </c>
       <c r="M7" t="n">
-        <v>4200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44594</v>
+        <v>44599</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44636</v>
+        <v>44641</v>
       </c>
       <c r="G8" t="n">
-        <v>13.76</v>
+        <v>0.64</v>
       </c>
       <c r="H8" t="n">
-        <v>7.16</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CMIN3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2022020200328266080001-1</t>
+          <t>2022020700329218730001-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="M8" t="n">
-        <v>6000</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>13.76</v>
       </c>
       <c r="H9" t="n">
-        <v>7.22</v>
+        <v>7.16</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -908,19 +908,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CMIN3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2022020900329699450001-1</t>
+          <t>2022020200328266080001-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>700</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="10">
@@ -949,10 +949,10 @@
         <v>44643</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
-        <v>7.22</v>
+        <v>12.92</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -961,19 +961,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CVCB3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2022020900329699460001-1</t>
+          <t>2022020900329701060001-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1002,10 +1002,10 @@
         <v>44643</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>7.22</v>
+        <v>12.92</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1014,19 +1014,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CVCB3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2022020900329699520001-1</t>
+          <t>2022020900329701070001-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -1034,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>7.22</v>
+        <v>12.83</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CVCB3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2022020900329699600001-1</t>
+          <t>2022020800329524100001-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13">
@@ -1087,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.46</v>
       </c>
       <c r="H13" t="n">
-        <v>7.22</v>
+        <v>24.16</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1120,19 +1120,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>EQTL3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2022020900329699670001-1</t>
+          <t>2022020800329513790001-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2179</v>
+        <v>9500</v>
       </c>
       <c r="M13" t="n">
-        <v>2179</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="14">
@@ -1161,10 +1161,10 @@
         <v>44643</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>8.68</v>
       </c>
       <c r="H14" t="n">
-        <v>7.22</v>
+        <v>19.01</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1173,19 +1173,19 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2022020900329699730001-1</t>
+          <t>2022020900329699510001-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15">
@@ -1214,10 +1214,10 @@
         <v>44643</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>8.68</v>
       </c>
       <c r="H15" t="n">
-        <v>12.92</v>
+        <v>19.01</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CVCB3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2022020900329701060001-1</t>
+          <t>2022020900329699640001-1</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -1267,10 +1267,10 @@
         <v>44643</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>8.68</v>
       </c>
       <c r="H16" t="n">
-        <v>12.92</v>
+        <v>19.01</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1279,19 +1279,19 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CVCB3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2022020900329701070001-1</t>
+          <t>2022020900329699680001-1</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -1299,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>8.68</v>
       </c>
       <c r="H17" t="n">
-        <v>12.83</v>
+        <v>19.01</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1332,19 +1332,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CVCB3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2022020800329524100001-1</t>
+          <t>2022020900329699820001-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2200</v>
+        <v>363</v>
       </c>
       <c r="M17" t="n">
-        <v>2200</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18">
@@ -1373,10 +1373,10 @@
         <v>44642</v>
       </c>
       <c r="G18" t="n">
-        <v>0.46</v>
+        <v>7.16</v>
       </c>
       <c r="H18" t="n">
-        <v>24.16</v>
+        <v>19.26</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>EQTL3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2022020800329513790001-1</t>
+          <t>2022020800329517810001-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>9500</v>
+        <v>3200</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="G19" t="n">
-        <v>8.68</v>
+        <v>39.36</v>
       </c>
       <c r="H19" t="n">
-        <v>19.01</v>
+        <v>11.78</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1438,24 +1438,24 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>HAPV3</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2022020900329699510001-1</t>
+          <t>2022020800329524040001-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>384</v>
+        <v>1403</v>
       </c>
       <c r="M19" t="n">
-        <v>384</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44601</v>
@@ -1479,10 +1479,10 @@
         <v>44643</v>
       </c>
       <c r="G20" t="n">
-        <v>8.68</v>
+        <v>9.24</v>
       </c>
       <c r="H20" t="n">
-        <v>19.01</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>IRBR3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2022020900329699640001-1</t>
+          <t>2022020900329699790001-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>173</v>
+        <v>5252</v>
       </c>
       <c r="M20" t="n">
-        <v>173</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="G21" t="n">
-        <v>8.68</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>19.01</v>
+        <v>3</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1544,27 +1544,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>IRBR3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2022020900329699680001-1</t>
+          <t>2022020800329524010001-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>214</v>
+        <v>6600</v>
       </c>
       <c r="M21" t="n">
-        <v>214</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44601</v>
+        <v>44565</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44643</v>
+        <v>44746</v>
       </c>
       <c r="G22" t="n">
-        <v>8.68</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
-        <v>19.01</v>
+        <v>12.81</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1597,27 +1597,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2022020900329699820001-1</t>
+          <t>2022010400322937040001-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>363</v>
+        <v>4100</v>
       </c>
       <c r="M22" t="n">
-        <v>363</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44600</v>
+        <v>44537</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44642</v>
+        <v>44714</v>
       </c>
       <c r="G23" t="n">
-        <v>7.16</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
-        <v>19.26</v>
+        <v>12.62</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1650,27 +1650,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2022020800329517810001-1</t>
+          <t>2021120700318865590001-1</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="M23" t="n">
-        <v>2334</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44601</v>
+        <v>44537</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44643</v>
+        <v>44714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>12.62</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1703,27 +1703,27 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>HYPE3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2022020900329699480001-1</t>
+          <t>2021120700318865610001-1</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>318</v>
+        <v>1700</v>
       </c>
       <c r="M24" t="n">
-        <v>318</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44601</v>
+        <v>44537</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44643</v>
+        <v>44714</v>
       </c>
       <c r="G25" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
-        <v>31</v>
+        <v>12.62</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>HYPE3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2022020900329699550001-1</t>
+          <t>2021120700318865620001-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>828</v>
+        <v>1700</v>
       </c>
       <c r="M25" t="n">
-        <v>182</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44601</v>
+        <v>44537</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44643</v>
+        <v>44714</v>
       </c>
       <c r="G26" t="n">
-        <v>9.24</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>12.62</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1809,24 +1809,24 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>IRBR3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2022020900329699790001-1</t>
+          <t>2021120700318865630001-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5252</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>5252</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44600</v>
@@ -1850,10 +1850,10 @@
         <v>44642</v>
       </c>
       <c r="G27" t="n">
-        <v>8.890000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>22.08</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1862,27 +1862,27 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>IRBR3</t>
+          <t>RADL3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2022020800329524010001-1</t>
+          <t>2022020800329517690001-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6600</v>
+        <v>53938</v>
       </c>
       <c r="M27" t="n">
-        <v>6600</v>
+        <v>50145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44565</v>
+        <v>44600</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44746</v>
+        <v>44642</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.44</v>
       </c>
       <c r="H28" t="n">
-        <v>12.81</v>
+        <v>32.43</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1915,27 +1915,27 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SANB11</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2022010400322937040001-1</t>
+          <t>2022020800329517710001-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="M28" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1953,13 +1953,13 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H29" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1968,27 +1968,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2021120700318865590001-1</t>
+          <t>2022020800329460970001-1</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3600</v>
+        <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>3600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H30" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2021120700318865610001-1</t>
+          <t>2022020800329460980001-1</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2038,10 +2038,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H31" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2021120700318865620001-1</t>
+          <t>2022020800329461040001-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="M31" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H32" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2127,27 +2127,27 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2021120700318865630001-1</t>
+          <t>2022020800329461080001-1</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2165,13 +2165,13 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H33" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2180,27 +2180,27 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2021120700318865640001-1</t>
+          <t>2022020800329461100001-1</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44537</v>
+        <v>44600</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2218,13 +2218,13 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44714</v>
+        <v>44642</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="H34" t="n">
-        <v>12.62</v>
+        <v>60.54</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2233,24 +2233,24 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2021120700318865650001-1</t>
+          <t>2022020800329461110001-1</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5200</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>901</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>44600</v>
@@ -2274,10 +2274,10 @@
         <v>44642</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H35" t="n">
-        <v>32.36</v>
+        <v>60.54</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2286,24 +2286,24 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2022020800329461910001-1</t>
+          <t>2022020800329461120001-1</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>52500</v>
+        <v>1400</v>
       </c>
       <c r="M35" t="n">
-        <v>33500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>44600</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2327,10 +2327,10 @@
         <v>44642</v>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>0.08</v>
       </c>
       <c r="H36" t="n">
-        <v>22.08</v>
+        <v>60.54</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2339,27 +2339,27 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>RADL3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2022020800329517690001-1</t>
+          <t>2022020800329461160001-1</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>53938</v>
+        <v>900</v>
       </c>
       <c r="M36" t="n">
-        <v>53938</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="H37" t="n">
-        <v>45.69</v>
+        <v>60.54</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2392,24 +2392,24 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>RDOR3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2022020900329700930001-1</t>
+          <t>2022020800329461170001-1</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>607</v>
+        <v>200</v>
       </c>
       <c r="M37" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44600</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2433,10 +2433,10 @@
         <v>44642</v>
       </c>
       <c r="G38" t="n">
-        <v>1.44</v>
+        <v>0.08</v>
       </c>
       <c r="H38" t="n">
-        <v>32.43</v>
+        <v>60.54</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2445,24 +2445,24 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2022020800329517710001-1</t>
+          <t>2022020800329461200001-1</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>44600</v>
@@ -2503,19 +2503,19 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2022020800329460970001-1</t>
+          <t>2022020800329461220001-1</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>44600</v>
@@ -2556,22 +2556,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2022020800329460980001-1</t>
+          <t>2022020800329461230001-1</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="M40" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G41" t="n">
         <v>0.08</v>
       </c>
       <c r="H41" t="n">
-        <v>60.54</v>
+        <v>60.35</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2022020800329461040001-1</t>
+          <t>2022020900329699500001-1</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2621,10 +2621,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2642,13 +2642,13 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G42" t="n">
         <v>0.08</v>
       </c>
       <c r="H42" t="n">
-        <v>60.54</v>
+        <v>60.35</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2662,22 +2662,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2022020800329461080001-1</t>
+          <t>2022020900329699540001-1</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G43" t="n">
         <v>0.08</v>
       </c>
       <c r="H43" t="n">
-        <v>60.54</v>
+        <v>60.35</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2715,22 +2715,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2022020800329461100001-1</t>
+          <t>2022020900329699560001-1</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2748,13 +2748,13 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G44" t="n">
         <v>0.08</v>
       </c>
       <c r="H44" t="n">
-        <v>60.54</v>
+        <v>60.35</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2022020800329461110001-1</t>
+          <t>2022020900329699570001-1</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2780,10 +2780,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G45" t="n">
         <v>0.08</v>
       </c>
       <c r="H45" t="n">
-        <v>60.54</v>
+        <v>60.35</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2821,22 +2821,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2022020800329461120001-1</t>
+          <t>2022020900329699580001-1</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>1316</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2854,13 +2854,13 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H46" t="n">
-        <v>87.19</v>
+        <v>60.35</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2869,27 +2869,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2022020700329218930001-1</t>
+          <t>2022020900329699650001-1</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7200</v>
+        <v>300</v>
       </c>
       <c r="M46" t="n">
-        <v>7200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="G47" t="n">
-        <v>7.28</v>
+        <v>0.08</v>
       </c>
       <c r="H47" t="n">
-        <v>4.29</v>
+        <v>60.35</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2922,27 +2922,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>VIIA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2022020700329215090001-1</t>
+          <t>2022020900329699690001-1</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5629</v>
+        <v>800</v>
       </c>
       <c r="M47" t="n">
-        <v>5629</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G48" t="n">
-        <v>7.28</v>
+        <v>0.08</v>
       </c>
       <c r="H48" t="n">
-        <v>4.13</v>
+        <v>60.35</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>VIIA3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2022020800329524000001-1</t>
+          <t>2022020900329699700001-1</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6554</v>
+        <v>100</v>
       </c>
       <c r="M48" t="n">
-        <v>1527</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G49" t="n">
-        <v>6.25</v>
+        <v>0.08</v>
       </c>
       <c r="H49" t="n">
-        <v>49</v>
+        <v>60.35</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2022020800329517730001-1</t>
+          <t>2022020900329699710001-1</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2027</v>
+        <v>1000</v>
       </c>
       <c r="M49" t="n">
-        <v>609</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>ITAU CV S/A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="H50" t="n">
-        <v>31.01</v>
+        <v>60.35</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3081,27 +3081,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>WEGE3</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2022020800329517040001-1</t>
+          <t>2022020900329699810001-1</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6234</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
-        <v>6234</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3110,43 +3110,202 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>ITAU CV S/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H51" t="n">
+        <v>60.35</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2022020900329699830001-1</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H51" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>WEGE3</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2022021000329857030001-1</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>7900</v>
-      </c>
-      <c r="M51" t="n">
-        <v>4766</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>USIM5</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2022021500330870630001-1</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VIIA3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2022020700329215090001-1</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>5629</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VIIA3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2022020800329524000001-1</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>6554</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6554</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>Data</t>
   </si>
@@ -58,178 +58,208 @@
     <t>ITAU CV S/A</t>
   </si>
   <si>
-    <t>CM CAPITAL MARKETS CCTVM LTDA</t>
-  </si>
-  <si>
     <t>MERRILL LYNCH S/A CTVM</t>
   </si>
   <si>
+    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+  </si>
+  <si>
     <t>BTG PACTUAL CTVM S/A</t>
   </si>
   <si>
-    <t>UBS BRASIL CCTVM S/A</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>ALSO3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>BIDI4</t>
-  </si>
-  <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>IVVB11</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ENBR3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>MOVI3</t>
   </si>
   <si>
-    <t>POSI3</t>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
   </si>
   <si>
     <t>RRRP3</t>
   </si>
   <si>
-    <t>SMAL11</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
-  </si>
-  <si>
-    <t>2022022300313890590001-2</t>
-  </si>
-  <si>
-    <t>2022031000333401280001-2</t>
-  </si>
-  <si>
-    <t>2022031000333431860001-2</t>
-  </si>
-  <si>
-    <t>2022030800335042290001-1</t>
-  </si>
-  <si>
-    <t>2022030200333812600001-1</t>
-  </si>
-  <si>
-    <t>2022022500333353970001-1</t>
-  </si>
-  <si>
-    <t>2022022500333359290001-1</t>
-  </si>
-  <si>
-    <t>2022022500333359300001-1</t>
-  </si>
-  <si>
-    <t>2022022500333359310001-1</t>
-  </si>
-  <si>
-    <t>2022020900329699620001-1</t>
-  </si>
-  <si>
-    <t>2022022400324966010001-2</t>
-  </si>
-  <si>
-    <t>2022022400333112230001-1</t>
-  </si>
-  <si>
-    <t>2022022400333047240001-1</t>
-  </si>
-  <si>
-    <t>2022022400333047640001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050610001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050620001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050630001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050640001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050650001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050660001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050670001-1</t>
-  </si>
-  <si>
-    <t>2022022400333050700001-1</t>
-  </si>
-  <si>
-    <t>2022022400333117280001-1</t>
-  </si>
-  <si>
-    <t>2022022400333128960001-1</t>
-  </si>
-  <si>
-    <t>2022022300332791790001-1</t>
-  </si>
-  <si>
-    <t>2022022300332791800001-1</t>
-  </si>
-  <si>
-    <t>2022010400322937040001-1</t>
-  </si>
-  <si>
-    <t>2021120700318865590001-1</t>
-  </si>
-  <si>
-    <t>2021120700318865610001-1</t>
-  </si>
-  <si>
-    <t>2021120700318865620001-1</t>
-  </si>
-  <si>
-    <t>2021120700318865630001-1</t>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>2022031100335872300001-1</t>
+  </si>
+  <si>
+    <t>2022030300334062840001-1</t>
+  </si>
+  <si>
+    <t>2022030900335287640001-1</t>
+  </si>
+  <si>
+    <t>2022031000335589240001-1</t>
+  </si>
+  <si>
+    <t>2022031100335838420001-1</t>
+  </si>
+  <si>
+    <t>2022030900335200610001-1</t>
+  </si>
+  <si>
+    <t>2022032400338798940001-1</t>
+  </si>
+  <si>
+    <t>2022031100335900030001-1</t>
+  </si>
+  <si>
+    <t>2022031000335589270001-1</t>
+  </si>
+  <si>
+    <t>2022030900335401210001-1</t>
+  </si>
+  <si>
+    <t>2022031100335859360001-1</t>
+  </si>
+  <si>
+    <t>2022031100335900250001-1</t>
+  </si>
+  <si>
+    <t>2022030900335295750001-1</t>
+  </si>
+  <si>
+    <t>2022031100335910050001-1</t>
+  </si>
+  <si>
+    <t>2022033100332322300001-2</t>
+  </si>
+  <si>
+    <t>2022033100332460950001-2</t>
+  </si>
+  <si>
+    <t>2022030900335331020001-1</t>
+  </si>
+  <si>
+    <t>2022030300334099150001-1</t>
+  </si>
+  <si>
+    <t>2022031100335900100001-1</t>
+  </si>
+  <si>
+    <t>2022030900335320390001-1</t>
+  </si>
+  <si>
+    <t>2022040100340329020001-1</t>
+  </si>
+  <si>
+    <t>2022032500338988660001-1</t>
+  </si>
+  <si>
+    <t>2022032500338988690001-1</t>
+  </si>
+  <si>
+    <t>2022022400332989420001-1</t>
+  </si>
+  <si>
+    <t>2022022400332989480001-1</t>
+  </si>
+  <si>
+    <t>2022030900335400760001-1</t>
+  </si>
+  <si>
+    <t>2022022400332989380001-1</t>
   </si>
   <si>
     <t>2022022300332767120001-1</t>
   </si>
   <si>
-    <t>2022022400333062660001-1</t>
-  </si>
-  <si>
-    <t>2022030300334100610001-1</t>
+    <t>2022033100340034760001-1</t>
+  </si>
+  <si>
+    <t>2022033100340034850001-1</t>
+  </si>
+  <si>
+    <t>2022033100340034910001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230510001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229380001-1</t>
+  </si>
+  <si>
+    <t>2022030900335340400001-1</t>
   </si>
   <si>
     <t>2022030900335347130001-1</t>
   </si>
   <si>
-    <t>2022022300332858020001-1</t>
-  </si>
-  <si>
-    <t>2022020700329215090001-1</t>
-  </si>
-  <si>
-    <t>2022020800329524000001-1</t>
-  </si>
-  <si>
-    <t>2022022300332809470001-1</t>
+    <t>2022030700334726560001-1</t>
+  </si>
+  <si>
+    <t>2022030400334338890001-1</t>
+  </si>
+  <si>
+    <t>2022030400334338900001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229550001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229640001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229720001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229800001-1</t>
+  </si>
+  <si>
+    <t>2022040100340229990001-1</t>
+  </si>
+  <si>
+    <t>2022032500338996780001-1</t>
   </si>
 </sst>
 </file>
@@ -591,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +667,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44615</v>
+        <v>44631</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -649,203 +679,203 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>44648</v>
+        <v>44673</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H2">
-        <v>22.3</v>
+        <v>22.51</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>9600</v>
+        <v>1400</v>
       </c>
       <c r="M2">
-        <v>9600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>20.59</v>
+        <v>22.89</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L3">
-        <v>33700</v>
+        <v>479</v>
       </c>
       <c r="M3">
-        <v>33700</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>20.59</v>
+        <v>21.95</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>110000</v>
+        <v>1900</v>
       </c>
       <c r="M4">
-        <v>110000</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>2.04</v>
       </c>
       <c r="H5">
-        <v>19.29</v>
+        <v>16.35</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L5">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="M5">
-        <v>50000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>44622</v>
+        <v>44631</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>44662</v>
+        <v>44673</v>
       </c>
       <c r="G6">
-        <v>0.8099999999999999</v>
+        <v>2.07</v>
       </c>
       <c r="H6">
-        <v>25.59</v>
+        <v>15.87</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>50000</v>
+        <v>2300</v>
       </c>
       <c r="M6">
-        <v>50000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>44617</v>
+        <v>44629</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -854,599 +884,599 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>44659</v>
+        <v>44670</v>
       </c>
       <c r="G7">
-        <v>0.8099999999999999</v>
+        <v>2.07</v>
       </c>
       <c r="H7">
-        <v>25.57</v>
+        <v>15.14</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>42060</v>
+        <v>6400</v>
       </c>
       <c r="M7">
-        <v>42060</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>44617</v>
+        <v>44644</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>44659</v>
+        <v>44686</v>
       </c>
       <c r="G8">
-        <v>0.8099999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
-        <v>25.57</v>
+        <v>16.77</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>2200</v>
+        <v>1301</v>
       </c>
       <c r="M8">
-        <v>2200</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>44617</v>
+        <v>44631</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>44659</v>
+        <v>44673</v>
       </c>
       <c r="G9">
-        <v>0.8099999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="H9">
-        <v>25.57</v>
+        <v>46.53</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L9">
-        <v>2200</v>
+        <v>334</v>
       </c>
       <c r="M9">
-        <v>2200</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>44617</v>
+        <v>44630</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>44659</v>
+        <v>44671</v>
       </c>
       <c r="G10">
-        <v>0.8099999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="H10">
-        <v>25.57</v>
+        <v>9.34</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L10">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="M10">
-        <v>622</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>44601</v>
+        <v>44629</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>44643</v>
+        <v>44670</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>1.73</v>
       </c>
       <c r="H11">
-        <v>8.09</v>
+        <v>9.06</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M11">
-        <v>6000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>44616</v>
+        <v>44631</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="G12">
-        <v>34.58</v>
+        <v>1.34</v>
       </c>
       <c r="H12">
-        <v>7.56</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>13700</v>
+        <v>1800</v>
       </c>
       <c r="M12">
-        <v>13700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>44616</v>
+        <v>44631</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="G13">
-        <v>22.1</v>
+        <v>0.95</v>
       </c>
       <c r="H13">
-        <v>10.13</v>
+        <v>30.38</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>1200</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>300</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>44616</v>
+        <v>44629</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>44658</v>
+        <v>44670</v>
       </c>
       <c r="G14">
-        <v>0.91</v>
+        <v>1.35</v>
       </c>
       <c r="H14">
-        <v>35.01</v>
+        <v>15.65</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="M14">
-        <v>600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>44616</v>
+        <v>44631</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="G15">
-        <v>0.91</v>
+        <v>1.29</v>
       </c>
       <c r="H15">
-        <v>35.01</v>
+        <v>14.36</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="M15">
-        <v>600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>44658</v>
+        <v>44693</v>
       </c>
       <c r="G16">
-        <v>0.91</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H16">
-        <v>35.01</v>
+        <v>15.41</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L16">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="M16">
-        <v>600</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>44658</v>
+        <v>44693</v>
       </c>
       <c r="G17">
-        <v>0.91</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H17">
-        <v>35.01</v>
+        <v>15.41</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L17">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="M17">
-        <v>600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>44616</v>
+        <v>44629</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>44658</v>
+        <v>44670</v>
       </c>
       <c r="G18">
-        <v>0.91</v>
+        <v>2.9</v>
       </c>
       <c r="H18">
-        <v>35.01</v>
+        <v>20.73</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>1300</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>44658</v>
+        <v>44663</v>
       </c>
       <c r="G19">
-        <v>0.91</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H19">
-        <v>35.01</v>
+        <v>17.65</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L19">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M19">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>44616</v>
+        <v>44631</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="G20">
-        <v>0.91</v>
+        <v>6.84</v>
       </c>
       <c r="H20">
-        <v>35.01</v>
+        <v>16.99</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L20">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M20">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>44616</v>
+        <v>44629</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>44658</v>
+        <v>44670</v>
       </c>
       <c r="G21">
-        <v>0.91</v>
+        <v>6.84</v>
       </c>
       <c r="H21">
-        <v>35.01</v>
+        <v>16.33</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21">
         <v>600</v>
@@ -1457,130 +1487,130 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>44616</v>
+        <v>44652</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="G22">
-        <v>0.91</v>
+        <v>5.79</v>
       </c>
       <c r="H22">
-        <v>35.01</v>
+        <v>16.07</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L22">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="M22">
-        <v>600</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>44616</v>
+        <v>44645</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="G23">
-        <v>0.91</v>
+        <v>3.85</v>
       </c>
       <c r="H23">
-        <v>35.01</v>
+        <v>30.38</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="M23">
-        <v>472</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>44616</v>
+        <v>44645</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="G24">
-        <v>7.91</v>
+        <v>3.85</v>
       </c>
       <c r="H24">
-        <v>3.2</v>
+        <v>30.38</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L24">
-        <v>5100</v>
+        <v>448</v>
       </c>
       <c r="M24">
-        <v>5100</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>44616</v>
@@ -1589,206 +1619,206 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2">
         <v>44658</v>
       </c>
       <c r="G25">
-        <v>1.23</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
-        <v>233.05</v>
+        <v>10.24</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L25">
-        <v>4547</v>
+        <v>864</v>
       </c>
       <c r="M25">
-        <v>4246</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="G26">
-        <v>1.82</v>
+        <v>0.1</v>
       </c>
       <c r="H26">
-        <v>10.06</v>
+        <v>10.24</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L26">
-        <v>1265</v>
+        <v>400</v>
       </c>
       <c r="M26">
-        <v>1265</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>44615</v>
+        <v>44629</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>44657</v>
+        <v>44670</v>
       </c>
       <c r="G27">
-        <v>1.82</v>
+        <v>11.24</v>
       </c>
       <c r="H27">
-        <v>10.06</v>
+        <v>13.03</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L27">
-        <v>734</v>
+        <v>409</v>
       </c>
       <c r="M27">
-        <v>734</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>44565</v>
+        <v>44616</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>44746</v>
+        <v>44658</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>12.81</v>
+        <v>18.98</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>4100</v>
+        <v>100</v>
       </c>
       <c r="M28">
-        <v>4100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>44537</v>
+        <v>44615</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>44714</v>
+        <v>44657</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="H29">
-        <v>12.62</v>
+        <v>16.83</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L29">
-        <v>3600</v>
+        <v>700</v>
       </c>
       <c r="M29">
-        <v>3600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>44537</v>
+        <v>44651</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1797,39 +1827,39 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>44714</v>
+        <v>45016</v>
       </c>
       <c r="G30">
         <v>0.5</v>
       </c>
       <c r="H30">
-        <v>12.62</v>
+        <v>18.86</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L30">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M30">
-        <v>1700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>44537</v>
+        <v>44651</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1838,39 +1868,39 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>44714</v>
+        <v>45016</v>
       </c>
       <c r="G31">
         <v>0.5</v>
       </c>
       <c r="H31">
-        <v>12.62</v>
+        <v>18.86</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L31">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="M31">
-        <v>1700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
-        <v>44537</v>
+        <v>44651</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1879,159 +1909,159 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>44714</v>
+        <v>45016</v>
       </c>
       <c r="G32">
         <v>0.5</v>
       </c>
       <c r="H32">
-        <v>12.62</v>
+        <v>18.86</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L32">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="M32">
-        <v>7300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>44615</v>
+        <v>44652</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>44657</v>
+        <v>45016</v>
       </c>
       <c r="G33">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>16.83</v>
+        <v>18.83</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L33">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="M33">
-        <v>19300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
-        <v>44616</v>
+        <v>44652</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>44658</v>
+        <v>44741</v>
       </c>
       <c r="G34">
-        <v>4.68</v>
+        <v>0.5</v>
       </c>
       <c r="H34">
-        <v>8.59</v>
+        <v>24.32</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L34">
-        <v>900</v>
+        <v>4400</v>
       </c>
       <c r="M34">
-        <v>900</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="G35">
-        <v>4.51</v>
+        <v>0.03</v>
       </c>
       <c r="H35">
-        <v>8.1</v>
+        <v>28.55</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L35">
-        <v>1200</v>
+        <v>14585</v>
       </c>
       <c r="M35">
-        <v>1100</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>44629</v>
@@ -2040,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
         <v>44670</v>
@@ -2055,183 +2085,388 @@
         <v>39.25</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L36">
-        <v>21600</v>
+        <v>18900</v>
       </c>
       <c r="M36">
-        <v>8800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2">
-        <v>44615</v>
+        <v>44627</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>44657</v>
+        <v>44665</v>
       </c>
       <c r="G37">
-        <v>12.87</v>
+        <v>0.12</v>
       </c>
       <c r="H37">
-        <v>111.88</v>
+        <v>38.67</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>3602</v>
+        <v>3800</v>
       </c>
       <c r="M37">
-        <v>3602</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2">
-        <v>44599</v>
+        <v>44624</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>44641</v>
+        <v>44664</v>
       </c>
       <c r="G38">
-        <v>7.28</v>
+        <v>0.12</v>
       </c>
       <c r="H38">
-        <v>4.29</v>
+        <v>38.44</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L38">
-        <v>5629</v>
+        <v>1899</v>
       </c>
       <c r="M38">
-        <v>5629</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2">
-        <v>44600</v>
+        <v>44624</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2">
-        <v>44642</v>
+        <v>44664</v>
       </c>
       <c r="G39">
-        <v>7.28</v>
+        <v>0.12</v>
       </c>
       <c r="H39">
-        <v>4.13</v>
+        <v>38.44</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L39">
-        <v>6554</v>
+        <v>3633</v>
       </c>
       <c r="M39">
-        <v>6554</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
-        <v>44615</v>
+        <v>44652</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>44657</v>
+        <v>44693</v>
       </c>
       <c r="G40">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>3.86</v>
+        <v>55.66</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L40">
-        <v>78417</v>
+        <v>1400</v>
       </c>
       <c r="M40">
-        <v>78417</v>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>55.66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41">
+        <v>1300</v>
+      </c>
+      <c r="M41">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42">
+        <v>55.66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42">
+        <v>1100</v>
+      </c>
+      <c r="M42">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <v>55.66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
+        <v>55.66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44">
+        <v>1000</v>
+      </c>
+      <c r="M44">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2">
+        <v>44687</v>
+      </c>
+      <c r="G45">
+        <v>0.08</v>
+      </c>
+      <c r="H45">
+        <v>96.67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45">
+        <v>46362</v>
+      </c>
+      <c r="M45">
+        <v>33856</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
   <si>
     <t>Data</t>
   </si>
@@ -88,6 +88,9 @@
     <t>CPFE3</t>
   </si>
   <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>IGTI11</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>MOVI3</t>
   </si>
   <si>
@@ -166,6 +172,39 @@
     <t>2022031100335900250001-1</t>
   </si>
   <si>
+    <t>2022040100340127810001-1</t>
+  </si>
+  <si>
+    <t>2022040100340127820001-1</t>
+  </si>
+  <si>
+    <t>2022040100340127830001-1</t>
+  </si>
+  <si>
+    <t>2022040100340127850001-1</t>
+  </si>
+  <si>
+    <t>2022022400333117240001-1</t>
+  </si>
+  <si>
+    <t>2022030300333891860001-1</t>
+  </si>
+  <si>
+    <t>2022031000321886990001-2</t>
+  </si>
+  <si>
+    <t>2022031000321887010001-2</t>
+  </si>
+  <si>
+    <t>2022030400334400740001-1</t>
+  </si>
+  <si>
+    <t>2022030900335288940001-1</t>
+  </si>
+  <si>
+    <t>2022030900335342430001-1</t>
+  </si>
+  <si>
     <t>2022030900335295750001-1</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
     <t>2022022400332989380001-1</t>
   </si>
   <si>
+    <t>2022010500323158650001-1</t>
+  </si>
+  <si>
+    <t>2022040100340228730001-1</t>
+  </si>
+  <si>
     <t>2022022300332767120001-1</t>
   </si>
   <si>
@@ -224,6 +269,24 @@
   </si>
   <si>
     <t>2022040100340230510001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230610001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230710001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230790001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230930001-1</t>
+  </si>
+  <si>
+    <t>2022040100340231040001-1</t>
+  </si>
+  <si>
+    <t>2022040100340231060001-1</t>
   </si>
   <si>
     <t>2022040100340229380001-1</t>
@@ -621,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>1400</v>
@@ -738,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>479</v>
@@ -779,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>1900</v>
@@ -820,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <v>300</v>
@@ -861,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>2300</v>
@@ -902,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7">
         <v>6400</v>
@@ -943,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>1301</v>
@@ -984,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L9">
         <v>334</v>
@@ -1025,7 +1088,7 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10">
         <v>400</v>
@@ -1066,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <v>4800</v>
@@ -1107,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L12">
         <v>1800</v>
@@ -1148,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13">
         <v>123</v>
@@ -1162,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1174,13 +1237,13 @@
         <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="G14">
-        <v>1.35</v>
+        <v>16.75</v>
       </c>
       <c r="H14">
-        <v>15.65</v>
+        <v>17.59</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1189,13 +1252,13 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14">
-        <v>1600</v>
+        <v>1028</v>
       </c>
       <c r="M14">
-        <v>1600</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1203,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1215,13 +1278,13 @@
         <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="G15">
-        <v>1.29</v>
+        <v>16.75</v>
       </c>
       <c r="H15">
-        <v>14.36</v>
+        <v>17.59</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1230,13 +1293,13 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L15">
-        <v>1600</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>1600</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1244,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1256,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="G16">
-        <v>0.8699999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="H16">
-        <v>15.41</v>
+        <v>17.59</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1271,13 +1334,13 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L16">
-        <v>544</v>
+        <v>698</v>
       </c>
       <c r="M16">
-        <v>544</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1285,7 +1348,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1297,13 +1360,13 @@
         <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="G17">
-        <v>0.8699999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="H17">
-        <v>15.41</v>
+        <v>17.59</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1312,59 +1375,59 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L17">
-        <v>3300</v>
+        <v>180</v>
       </c>
       <c r="M17">
-        <v>2900</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44616</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44658</v>
+      </c>
+      <c r="G18">
+        <v>1.6</v>
+      </c>
+      <c r="H18">
+        <v>15.57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
-        <v>44629</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44670</v>
-      </c>
-      <c r="G18">
-        <v>2.9</v>
-      </c>
-      <c r="H18">
-        <v>20.73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L18">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M18">
-        <v>1300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>44623</v>
@@ -1382,115 +1445,115 @@
         <v>44663</v>
       </c>
       <c r="G19">
-        <v>7.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H19">
-        <v>17.65</v>
+        <v>14.95</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L19">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>44673</v>
+        <v>44671</v>
       </c>
       <c r="G20">
-        <v>6.84</v>
+        <v>1.65</v>
       </c>
       <c r="H20">
-        <v>16.99</v>
+        <v>14.42</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="G21">
-        <v>6.84</v>
+        <v>1.65</v>
       </c>
       <c r="H21">
-        <v>16.33</v>
+        <v>14.42</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="M21">
-        <v>600</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1502,77 +1565,77 @@
         <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>44694</v>
+        <v>44664</v>
       </c>
       <c r="G22">
-        <v>5.79</v>
+        <v>1.57</v>
       </c>
       <c r="H22">
-        <v>16.07</v>
+        <v>15.05</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L22">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>44645</v>
+        <v>44629</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>44687</v>
+        <v>44670</v>
       </c>
       <c r="G23">
-        <v>3.85</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>30.38</v>
+        <v>13.84</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L23">
-        <v>1700</v>
+        <v>1150</v>
       </c>
       <c r="M23">
-        <v>1700</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>44645</v>
+        <v>44629</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1584,118 +1647,118 @@
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>44687</v>
+        <v>44670</v>
       </c>
       <c r="G24">
-        <v>3.85</v>
+        <v>1.55</v>
       </c>
       <c r="H24">
-        <v>30.38</v>
+        <v>13.84</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L24">
-        <v>448</v>
+        <v>1600</v>
       </c>
       <c r="M24">
-        <v>448</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>44616</v>
+        <v>44629</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>44658</v>
+        <v>44670</v>
       </c>
       <c r="G25">
-        <v>0.1</v>
+        <v>1.35</v>
       </c>
       <c r="H25">
-        <v>10.24</v>
+        <v>15.65</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L25">
-        <v>864</v>
+        <v>1600</v>
       </c>
       <c r="M25">
-        <v>864</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>44616</v>
+        <v>44631</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="G26">
-        <v>0.1</v>
+        <v>1.29</v>
       </c>
       <c r="H26">
-        <v>10.24</v>
+        <v>14.36</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L26">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="M26">
-        <v>400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>44629</v>
+        <v>44651</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1707,77 +1770,77 @@
         <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>44670</v>
+        <v>44693</v>
       </c>
       <c r="G27">
-        <v>11.24</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H27">
-        <v>13.03</v>
+        <v>15.41</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L27">
-        <v>409</v>
+        <v>544</v>
       </c>
       <c r="M27">
-        <v>309</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>44658</v>
+        <v>44693</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H28">
-        <v>18.98</v>
+        <v>15.41</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>44615</v>
+        <v>44629</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1789,145 +1852,145 @@
         <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>44657</v>
+        <v>44670</v>
       </c>
       <c r="G29">
-        <v>0.23</v>
+        <v>2.9</v>
       </c>
       <c r="H29">
-        <v>16.83</v>
+        <v>20.73</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L29">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M29">
-        <v>400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>44651</v>
+        <v>44623</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>45016</v>
+        <v>44663</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H30">
-        <v>18.86</v>
+        <v>17.65</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L30">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="M30">
-        <v>1500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
-        <v>44651</v>
+        <v>44631</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>45016</v>
+        <v>44673</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>6.84</v>
       </c>
       <c r="H31">
-        <v>18.86</v>
+        <v>16.99</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M31">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>44651</v>
+        <v>44629</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>45016</v>
+        <v>44670</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>6.84</v>
       </c>
       <c r="H32">
-        <v>18.86</v>
+        <v>16.33</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L32">
         <v>600</v>
@@ -1938,7 +2001,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>44652</v>
@@ -1947,83 +2010,83 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>45016</v>
+        <v>44694</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>5.79</v>
       </c>
       <c r="H33">
-        <v>18.83</v>
+        <v>16.07</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M33">
-        <v>1400</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>44652</v>
+        <v>44645</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>44741</v>
+        <v>44687</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>3.85</v>
       </c>
       <c r="H34">
-        <v>24.32</v>
+        <v>30.38</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L34">
-        <v>4400</v>
+        <v>1700</v>
       </c>
       <c r="M34">
-        <v>4400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>44629</v>
+        <v>44645</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2035,118 +2098,118 @@
         <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>44670</v>
+        <v>44687</v>
       </c>
       <c r="G35">
-        <v>0.03</v>
+        <v>3.85</v>
       </c>
       <c r="H35">
-        <v>28.55</v>
+        <v>30.38</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L35">
-        <v>14585</v>
+        <v>448</v>
       </c>
       <c r="M35">
-        <v>7557</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>44629</v>
+        <v>44616</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>44670</v>
+        <v>44658</v>
       </c>
       <c r="G36">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H36">
-        <v>39.25</v>
+        <v>10.24</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36">
-        <v>18900</v>
+        <v>864</v>
       </c>
       <c r="M36">
-        <v>18900</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>44627</v>
+        <v>44616</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>44665</v>
+        <v>44658</v>
       </c>
       <c r="G37">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H37">
-        <v>38.67</v>
+        <v>10.24</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L37">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="M37">
-        <v>3800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>44624</v>
+        <v>44629</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2158,77 +2221,77 @@
         <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="G38">
-        <v>0.12</v>
+        <v>11.24</v>
       </c>
       <c r="H38">
-        <v>38.44</v>
+        <v>13.03</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L38">
-        <v>1899</v>
+        <v>409</v>
       </c>
       <c r="M38">
-        <v>1899</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>44624</v>
+        <v>44616</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="G39">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>38.44</v>
+        <v>18.98</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L39">
-        <v>3633</v>
+        <v>100</v>
       </c>
       <c r="M39">
-        <v>3633</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
-        <v>44652</v>
+        <v>44566</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2240,33 +2303,33 @@
         <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>44693</v>
+        <v>44746</v>
       </c>
       <c r="G40">
         <v>0.5</v>
       </c>
       <c r="H40">
-        <v>55.66</v>
+        <v>12.07</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L40">
-        <v>1400</v>
+        <v>1599</v>
       </c>
       <c r="M40">
-        <v>1400</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2">
         <v>44652</v>
@@ -2281,77 +2344,77 @@
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>44693</v>
+        <v>44838</v>
       </c>
       <c r="G41">
         <v>0.5</v>
       </c>
       <c r="H41">
-        <v>55.66</v>
+        <v>10.18</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L41">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M41">
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>44652</v>
+        <v>44615</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>44693</v>
+        <v>44657</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="H42">
-        <v>55.66</v>
+        <v>16.83</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L42">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M42">
-        <v>1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2363,36 +2426,36 @@
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>44693</v>
+        <v>45016</v>
       </c>
       <c r="G43">
         <v>0.5</v>
       </c>
       <c r="H43">
-        <v>55.66</v>
+        <v>18.86</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L43">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M43">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2404,68 +2467,847 @@
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>44693</v>
+        <v>45016</v>
       </c>
       <c r="G44">
         <v>0.5</v>
       </c>
       <c r="H44">
-        <v>55.66</v>
+        <v>18.86</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L44">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M44">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>18.86</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45">
+        <v>600</v>
+      </c>
+      <c r="M45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>18.83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" t="s">
+        <v>84</v>
+      </c>
+      <c r="L46">
+        <v>2500</v>
+      </c>
+      <c r="M46">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47">
+        <v>18.83</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>1500</v>
+      </c>
+      <c r="M47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>18.83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L48">
+        <v>1000</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49">
+        <v>18.83</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49">
+        <v>1000</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>18.83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50">
+        <v>700</v>
+      </c>
+      <c r="M50">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <v>18.83</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51">
+        <v>500</v>
+      </c>
+      <c r="M51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="H52">
+        <v>18.83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>500</v>
+      </c>
+      <c r="M52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>60</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="2">
+        <v>44741</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>24.32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53">
+        <v>4400</v>
+      </c>
+      <c r="M53">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="2">
+        <v>44670</v>
+      </c>
+      <c r="G54">
+        <v>0.03</v>
+      </c>
+      <c r="H54">
+        <v>28.55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54">
+        <v>14585</v>
+      </c>
+      <c r="M54">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2">
+        <v>44670</v>
+      </c>
+      <c r="G55">
+        <v>0.12</v>
+      </c>
+      <c r="H55">
+        <v>39.25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55">
+        <v>18900</v>
+      </c>
+      <c r="M55">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>69</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44627</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="2">
+        <v>44665</v>
+      </c>
+      <c r="G56">
+        <v>0.12</v>
+      </c>
+      <c r="H56">
+        <v>38.67</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56">
+        <v>3800</v>
+      </c>
+      <c r="M56">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
         <v>70</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B57" s="2">
+        <v>44624</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2">
+        <v>44664</v>
+      </c>
+      <c r="G57">
+        <v>0.12</v>
+      </c>
+      <c r="H57">
+        <v>38.44</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57">
+        <v>1899</v>
+      </c>
+      <c r="M57">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>71</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44624</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44664</v>
+      </c>
+      <c r="G58">
+        <v>0.12</v>
+      </c>
+      <c r="H58">
+        <v>38.44</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58">
+        <v>3633</v>
+      </c>
+      <c r="M58">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>55.66</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>97</v>
+      </c>
+      <c r="L59">
+        <v>1400</v>
+      </c>
+      <c r="M59">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>73</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>55.66</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60">
+        <v>1300</v>
+      </c>
+      <c r="M60">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>74</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>55.66</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L61">
+        <v>1100</v>
+      </c>
+      <c r="M61">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>75</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62">
+        <v>55.66</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>1000</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+      <c r="H63">
+        <v>55.66</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63">
+        <v>1000</v>
+      </c>
+      <c r="M63">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>83</v>
+      </c>
+      <c r="B64" s="2">
         <v>44645</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="2">
         <v>44687</v>
       </c>
-      <c r="G45">
+      <c r="G64">
         <v>0.08</v>
       </c>
-      <c r="H45">
+      <c r="H64">
         <v>96.67</v>
       </c>
-      <c r="I45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" t="s">
-        <v>81</v>
-      </c>
-      <c r="L45">
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>102</v>
+      </c>
+      <c r="L64">
         <v>46362</v>
       </c>
-      <c r="M45">
+      <c r="M64">
         <v>33856</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="106">
   <si>
     <t>Data</t>
   </si>
@@ -91,6 +91,9 @@
     <t>CYRE3</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>IGTI11</t>
   </si>
   <si>
-    <t>LWSA3</t>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>MOVI3</t>
@@ -184,7 +187,7 @@
     <t>2022040100340127850001-1</t>
   </si>
   <si>
-    <t>2022022400333117240001-1</t>
+    <t>2022040400333117240001-2</t>
   </si>
   <si>
     <t>2022030300333891860001-1</t>
@@ -205,6 +208,15 @@
     <t>2022030900335342430001-1</t>
   </si>
   <si>
+    <t>2022040400340680610001-1</t>
+  </si>
+  <si>
+    <t>2022022500333136590001-1</t>
+  </si>
+  <si>
+    <t>2022030400334400720001-1</t>
+  </si>
+  <si>
     <t>2022030900335295750001-1</t>
   </si>
   <si>
@@ -250,15 +262,24 @@
     <t>2022022400332989380001-1</t>
   </si>
   <si>
-    <t>2022010500323158650001-1</t>
-  </si>
-  <si>
-    <t>2022040100340228730001-1</t>
+    <t>2022033000339841070001-1</t>
   </si>
   <si>
     <t>2022022300332767120001-1</t>
   </si>
   <si>
+    <t>2022040400340607390001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607570001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607580001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607600001-1</t>
+  </si>
+  <si>
     <t>2022033100340034760001-1</t>
   </si>
   <si>
@@ -275,18 +296,6 @@
   </si>
   <si>
     <t>2022040100340230710001-1</t>
-  </si>
-  <si>
-    <t>2022040100340230790001-1</t>
-  </si>
-  <si>
-    <t>2022040100340230930001-1</t>
-  </si>
-  <si>
-    <t>2022040100340231040001-1</t>
-  </si>
-  <si>
-    <t>2022040100340231060001-1</t>
   </si>
   <si>
     <t>2022040100340229380001-1</t>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>1400</v>
@@ -801,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>479</v>
@@ -842,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4">
         <v>1900</v>
@@ -883,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5">
         <v>300</v>
@@ -924,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6">
         <v>2300</v>
@@ -965,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7">
         <v>6400</v>
@@ -1006,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>1301</v>
@@ -1047,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>334</v>
@@ -1088,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>400</v>
@@ -1129,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11">
         <v>4800</v>
@@ -1170,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>1800</v>
@@ -1211,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>123</v>
@@ -1252,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14">
         <v>1028</v>
@@ -1293,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15">
         <v>127</v>
@@ -1334,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16">
         <v>698</v>
@@ -1375,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17">
         <v>180</v>
@@ -1389,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>44616</v>
+        <v>44655</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1401,13 +1410,13 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>44658</v>
+        <v>44697</v>
       </c>
       <c r="G18">
-        <v>1.6</v>
+        <v>16.2</v>
       </c>
       <c r="H18">
-        <v>15.57</v>
+        <v>17.66</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1416,7 +1425,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18">
         <v>1200</v>
@@ -1457,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -1498,7 +1507,7 @@
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L20">
         <v>25</v>
@@ -1539,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21">
         <v>492</v>
@@ -1580,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -1621,7 +1630,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23">
         <v>1150</v>
@@ -1662,13 +1671,13 @@
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L24">
         <v>1600</v>
       </c>
       <c r="M24">
-        <v>620</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1676,40 +1685,40 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>44670</v>
+        <v>44741</v>
       </c>
       <c r="G25">
-        <v>1.35</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>15.65</v>
+        <v>17.66</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="M25">
-        <v>1600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1717,7 +1726,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>44631</v>
+        <v>44617</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1729,13 +1738,13 @@
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>44673</v>
+        <v>44659</v>
       </c>
       <c r="G26">
-        <v>1.29</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H26">
-        <v>14.36</v>
+        <v>33.47</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1744,13 +1753,13 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L26">
-        <v>1600</v>
+        <v>490</v>
       </c>
       <c r="M26">
-        <v>1600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1758,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>44651</v>
+        <v>44624</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1770,13 +1779,13 @@
         <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>44693</v>
+        <v>44664</v>
       </c>
       <c r="G27">
-        <v>0.8699999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H27">
-        <v>15.41</v>
+        <v>35.02</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1785,21 +1794,21 @@
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27">
-        <v>544</v>
+        <v>11615</v>
       </c>
       <c r="M27">
-        <v>544</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
-        <v>44651</v>
+        <v>44629</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1811,36 +1820,36 @@
         <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>44693</v>
+        <v>44670</v>
       </c>
       <c r="G28">
-        <v>0.8699999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="H28">
-        <v>15.41</v>
+        <v>15.65</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L28">
-        <v>3300</v>
+        <v>1600</v>
       </c>
       <c r="M28">
-        <v>2900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1852,13 +1861,13 @@
         <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>44670</v>
+        <v>44673</v>
       </c>
       <c r="G29">
-        <v>2.9</v>
+        <v>1.29</v>
       </c>
       <c r="H29">
-        <v>20.73</v>
+        <v>14.36</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1867,21 +1876,21 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L29">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M29">
-        <v>1300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
-        <v>44623</v>
+        <v>44651</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1893,36 +1902,36 @@
         <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>44663</v>
+        <v>44693</v>
       </c>
       <c r="G30">
-        <v>7.199999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H30">
-        <v>17.65</v>
+        <v>15.41</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30">
-        <v>350</v>
+        <v>544</v>
       </c>
       <c r="M30">
-        <v>350</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
-        <v>44631</v>
+        <v>44651</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1934,33 +1943,33 @@
         <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>44673</v>
+        <v>44693</v>
       </c>
       <c r="G31">
-        <v>6.84</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H31">
-        <v>16.99</v>
+        <v>15.41</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="M31">
-        <v>100</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>44629</v>
@@ -1978,10 +1987,10 @@
         <v>44670</v>
       </c>
       <c r="G32">
-        <v>6.84</v>
+        <v>2.9</v>
       </c>
       <c r="H32">
-        <v>16.33</v>
+        <v>20.73</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1990,21 +1999,21 @@
         <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M32">
-        <v>600</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
-        <v>44652</v>
+        <v>44623</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2016,13 +2025,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>44694</v>
+        <v>44663</v>
       </c>
       <c r="G33">
-        <v>5.79</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H33">
-        <v>16.07</v>
+        <v>17.65</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -2031,21 +2040,21 @@
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33">
-        <v>1700</v>
+        <v>350</v>
       </c>
       <c r="M33">
-        <v>82</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
-        <v>44645</v>
+        <v>44631</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2057,36 +2066,36 @@
         <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>44687</v>
+        <v>44673</v>
       </c>
       <c r="G34">
-        <v>3.85</v>
+        <v>6.84</v>
       </c>
       <c r="H34">
-        <v>30.38</v>
+        <v>16.99</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="M34">
-        <v>1700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
-        <v>44645</v>
+        <v>44629</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2098,95 +2107,95 @@
         <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>44687</v>
+        <v>44670</v>
       </c>
       <c r="G35">
-        <v>3.85</v>
+        <v>6.84</v>
       </c>
       <c r="H35">
-        <v>30.38</v>
+        <v>16.33</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L35">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="M35">
-        <v>448</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
-        <v>44616</v>
+        <v>44652</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>5.79</v>
       </c>
       <c r="H36">
-        <v>10.24</v>
+        <v>16.07</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L36">
-        <v>864</v>
+        <v>1700</v>
       </c>
       <c r="M36">
-        <v>864</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2">
-        <v>44616</v>
+        <v>44645</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="G37">
-        <v>0.1</v>
+        <v>3.85</v>
       </c>
       <c r="H37">
-        <v>10.24</v>
+        <v>30.38</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -2195,21 +2204,21 @@
         <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L37">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="M37">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2">
-        <v>44629</v>
+        <v>44645</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2221,33 +2230,33 @@
         <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>44670</v>
+        <v>44687</v>
       </c>
       <c r="G38">
-        <v>11.24</v>
+        <v>3.85</v>
       </c>
       <c r="H38">
-        <v>13.03</v>
+        <v>30.38</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L38">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="M38">
-        <v>309</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
         <v>44616</v>
@@ -2265,156 +2274,156 @@
         <v>44658</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H39">
-        <v>18.98</v>
+        <v>10.24</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L39">
-        <v>100</v>
+        <v>864</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>864</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2">
-        <v>44566</v>
+        <v>44616</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>44746</v>
+        <v>44658</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H40">
-        <v>12.07</v>
+        <v>10.24</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L40">
-        <v>1599</v>
+        <v>400</v>
       </c>
       <c r="M40">
-        <v>1599</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2">
-        <v>44652</v>
+        <v>44629</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>44838</v>
+        <v>44670</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>11.24</v>
       </c>
       <c r="H41">
-        <v>10.18</v>
+        <v>13.03</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L41">
-        <v>1500</v>
+        <v>409</v>
       </c>
       <c r="M41">
-        <v>1500</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="G42">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>16.83</v>
+        <v>18.98</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L42">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M42">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2426,54 +2435,54 @@
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="G43">
         <v>0.5</v>
       </c>
       <c r="H43">
-        <v>18.86</v>
+        <v>10.85</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L43">
-        <v>1500</v>
+        <v>354900</v>
       </c>
       <c r="M43">
-        <v>1500</v>
+        <v>49189</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="B44" s="2">
-        <v>44651</v>
+        <v>44615</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>45016</v>
+        <v>44657</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="H44">
-        <v>18.86</v>
+        <v>16.83</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -2482,21 +2491,21 @@
         <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44">
         <v>700</v>
       </c>
       <c r="M44">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2514,30 +2523,30 @@
         <v>0.5</v>
       </c>
       <c r="H45">
-        <v>18.86</v>
+        <v>19.11</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L45">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M45">
-        <v>600</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="B46" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2555,30 +2564,30 @@
         <v>0.5</v>
       </c>
       <c r="H46">
-        <v>18.83</v>
+        <v>19.11</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L46">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M46">
-        <v>2500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="B47" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2596,30 +2605,30 @@
         <v>0.5</v>
       </c>
       <c r="H47">
-        <v>18.83</v>
+        <v>19.11</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L47">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M47">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="B48" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2637,30 +2646,30 @@
         <v>0.5</v>
       </c>
       <c r="H48">
-        <v>18.83</v>
+        <v>19.11</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L48">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="M48">
-        <v>1000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="B49" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2678,30 +2687,30 @@
         <v>0.5</v>
       </c>
       <c r="H49">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L49">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M49">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="B50" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2719,16 +2728,16 @@
         <v>0.5</v>
       </c>
       <c r="H50">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50">
         <v>700</v>
@@ -2739,10 +2748,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="B51" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2760,27 +2769,27 @@
         <v>0.5</v>
       </c>
       <c r="H51">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L51">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M51">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="B52" s="2">
         <v>44652</v>
@@ -2807,21 +2816,21 @@
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L52">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="M52">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="B53" s="2">
         <v>44652</v>
@@ -2836,13 +2845,13 @@
         <v>17</v>
       </c>
       <c r="F53" s="2">
-        <v>44741</v>
+        <v>45016</v>
       </c>
       <c r="G53">
         <v>0.5</v>
       </c>
       <c r="H53">
-        <v>24.32</v>
+        <v>18.83</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -2851,39 +2860,39 @@
         <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L53">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="M53">
-        <v>4400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="B54" s="2">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="2">
-        <v>44670</v>
+        <v>45016</v>
       </c>
       <c r="G54">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="H54">
-        <v>28.55</v>
+        <v>18.83</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -2892,39 +2901,39 @@
         <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L54">
-        <v>14585</v>
+        <v>1000</v>
       </c>
       <c r="M54">
-        <v>7557</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="2">
-        <v>44670</v>
+        <v>44741</v>
       </c>
       <c r="G55">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H55">
-        <v>39.25</v>
+        <v>24.32</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -2933,21 +2942,21 @@
         <v>37</v>
       </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55">
-        <v>18900</v>
+        <v>4400</v>
       </c>
       <c r="M55">
-        <v>18900</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="B56" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2959,13 +2968,13 @@
         <v>17</v>
       </c>
       <c r="F56" s="2">
-        <v>44665</v>
+        <v>44670</v>
       </c>
       <c r="G56">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="H56">
-        <v>38.67</v>
+        <v>28.55</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -2974,21 +2983,21 @@
         <v>37</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56">
-        <v>3800</v>
+        <v>14585</v>
       </c>
       <c r="M56">
-        <v>3800</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="B57" s="2">
-        <v>44624</v>
+        <v>44629</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -3000,36 +3009,36 @@
         <v>17</v>
       </c>
       <c r="F57" s="2">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="G57">
         <v>0.12</v>
       </c>
       <c r="H57">
-        <v>38.44</v>
+        <v>39.25</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L57">
-        <v>1899</v>
+        <v>18900</v>
       </c>
       <c r="M57">
-        <v>1899</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="B58" s="2">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -3041,54 +3050,54 @@
         <v>17</v>
       </c>
       <c r="F58" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="G58">
         <v>0.12</v>
       </c>
       <c r="H58">
-        <v>38.44</v>
+        <v>38.67</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L58">
-        <v>3633</v>
+        <v>3800</v>
       </c>
       <c r="M58">
-        <v>3633</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="B59" s="2">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="2">
-        <v>44693</v>
+        <v>44664</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H59">
-        <v>55.66</v>
+        <v>38.44</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -3097,39 +3106,39 @@
         <v>38</v>
       </c>
       <c r="K59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L59">
-        <v>1400</v>
+        <v>1899</v>
       </c>
       <c r="M59">
-        <v>1400</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="B60" s="2">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="2">
-        <v>44693</v>
+        <v>44664</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H60">
-        <v>55.66</v>
+        <v>38.44</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -3138,18 +3147,18 @@
         <v>38</v>
       </c>
       <c r="K60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L60">
-        <v>1300</v>
+        <v>3633</v>
       </c>
       <c r="M60">
-        <v>1300</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="B61" s="2">
         <v>44652</v>
@@ -3176,21 +3185,21 @@
         <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L61">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M61">
-        <v>1100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="B62" s="2">
         <v>44652</v>
@@ -3217,21 +3226,21 @@
         <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L62">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M62">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="B63" s="2">
         <v>44652</v>
@@ -3258,42 +3267,42 @@
         <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L63">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M63">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="B64" s="2">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="G64">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="H64">
-        <v>96.67</v>
+        <v>55.66</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -3302,12 +3311,94 @@
         <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L64">
+        <v>1000</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>242</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G65">
+        <v>0.5</v>
+      </c>
+      <c r="H65">
+        <v>55.66</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65">
+        <v>1000</v>
+      </c>
+      <c r="M65">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>249</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2">
+        <v>44687</v>
+      </c>
+      <c r="G66">
+        <v>0.08</v>
+      </c>
+      <c r="H66">
+        <v>96.67</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" t="s">
+        <v>105</v>
+      </c>
+      <c r="L66">
         <v>46362</v>
       </c>
-      <c r="M64">
+      <c r="M66">
         <v>33856</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
   <si>
     <t>Data</t>
   </si>
@@ -55,27 +55,27 @@
     <t>KAPITALO KAPPA MASTER FIM</t>
   </si>
   <si>
+    <t>MERRILL LYNCH S/A CTVM</t>
+  </si>
+  <si>
+    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+  </si>
+  <si>
     <t>ITAU CV S/A</t>
   </si>
   <si>
-    <t>MERRILL LYNCH S/A CTVM</t>
-  </si>
-  <si>
-    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
-  </si>
-  <si>
     <t>BTG PACTUAL CTVM S/A</t>
   </si>
   <si>
+    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
     <t>BRFS3</t>
   </si>
   <si>
@@ -103,25 +103,10 @@
     <t>EZTC3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>MOVI3</t>
+    <t>LWSA3</t>
   </si>
   <si>
     <t>PETZ3</t>
@@ -133,21 +118,18 @@
     <t>RRRP3</t>
   </si>
   <si>
-    <t>SUZB3</t>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>SMAL11</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
   </si>
   <si>
     <t>VALE3</t>
   </si>
   <si>
-    <t>2022031100335872300001-1</t>
-  </si>
-  <si>
-    <t>2022030300334062840001-1</t>
-  </si>
-  <si>
-    <t>2022030900335287640001-1</t>
-  </si>
-  <si>
     <t>2022031000335589240001-1</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>2022030900335200610001-1</t>
   </si>
   <si>
-    <t>2022032400338798940001-1</t>
-  </si>
-  <si>
     <t>2022031100335900030001-1</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>2022030900335401210001-1</t>
   </si>
   <si>
-    <t>2022031100335859360001-1</t>
-  </si>
-  <si>
     <t>2022031100335900250001-1</t>
   </si>
   <si>
@@ -208,13 +184,28 @@
     <t>2022030900335342430001-1</t>
   </si>
   <si>
-    <t>2022040400340680610001-1</t>
-  </si>
-  <si>
     <t>2022022500333136590001-1</t>
   </si>
   <si>
-    <t>2022030400334400720001-1</t>
+    <t>2022030400334400840001-1</t>
+  </si>
+  <si>
+    <t>2022030300334054620001-1</t>
+  </si>
+  <si>
+    <t>2022030300334054630001-1</t>
+  </si>
+  <si>
+    <t>2022030700334729880001-1</t>
+  </si>
+  <si>
+    <t>2022032500331177700001-2</t>
+  </si>
+  <si>
+    <t>2022032500338980540001-1</t>
+  </si>
+  <si>
+    <t>2022040400333117260001-2</t>
   </si>
   <si>
     <t>2022030900335295750001-1</t>
@@ -235,37 +226,10 @@
     <t>2022030300334099150001-1</t>
   </si>
   <si>
-    <t>2022031100335900100001-1</t>
-  </si>
-  <si>
-    <t>2022030900335320390001-1</t>
-  </si>
-  <si>
-    <t>2022040100340329020001-1</t>
-  </si>
-  <si>
-    <t>2022032500338988660001-1</t>
-  </si>
-  <si>
-    <t>2022032500338988690001-1</t>
-  </si>
-  <si>
-    <t>2022022400332989420001-1</t>
-  </si>
-  <si>
-    <t>2022022400332989480001-1</t>
-  </si>
-  <si>
-    <t>2022030900335400760001-1</t>
-  </si>
-  <si>
-    <t>2022022400332989380001-1</t>
-  </si>
-  <si>
     <t>2022033000339841070001-1</t>
   </si>
   <si>
-    <t>2022022300332767120001-1</t>
+    <t>2022010500323158650001-1</t>
   </si>
   <si>
     <t>2022040400340607390001-1</t>
@@ -298,12 +262,15 @@
     <t>2022040100340230710001-1</t>
   </si>
   <si>
+    <t>2022040100340230790001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230930001-1</t>
+  </si>
+  <si>
     <t>2022040100340229380001-1</t>
   </si>
   <si>
-    <t>2022030900335340400001-1</t>
-  </si>
-  <si>
     <t>2022030900335347130001-1</t>
   </si>
   <si>
@@ -316,19 +283,16 @@
     <t>2022030400334338900001-1</t>
   </si>
   <si>
-    <t>2022040100340229550001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229640001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229720001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229800001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229990001-1</t>
+    <t>2022040600341193880001-1</t>
+  </si>
+  <si>
+    <t>2022040600341185990001-1</t>
+  </si>
+  <si>
+    <t>2022040600341194270001-1</t>
+  </si>
+  <si>
+    <t>2022040600341194280001-1</t>
   </si>
   <si>
     <t>2022032500338996780001-1</t>
@@ -693,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -751,31 +715,31 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>44673</v>
+        <v>44671</v>
       </c>
       <c r="G2">
-        <v>0.15</v>
+        <v>2.04</v>
       </c>
       <c r="H2">
-        <v>22.51</v>
+        <v>16.35</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>1400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -783,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44623</v>
+        <v>44631</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -792,31 +756,31 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>44663</v>
+        <v>44673</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>2.07</v>
       </c>
       <c r="H3">
-        <v>22.89</v>
+        <v>15.87</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3">
-        <v>479</v>
+        <v>2300</v>
       </c>
       <c r="M3">
-        <v>479</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -830,121 +794,121 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>44670</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>2.07</v>
       </c>
       <c r="H4">
-        <v>21.95</v>
+        <v>15.14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>1900</v>
+        <v>6400</v>
       </c>
       <c r="M4">
-        <v>1284</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>44671</v>
+        <v>44673</v>
       </c>
       <c r="G5">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="H5">
-        <v>16.35</v>
+        <v>46.53</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M5">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>44673</v>
+        <v>44671</v>
       </c>
       <c r="G6">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="H6">
-        <v>15.87</v>
+        <v>9.34</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="M6">
-        <v>2300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>44629</v>
@@ -953,575 +917,575 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>44670</v>
       </c>
       <c r="G7">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="H7">
-        <v>15.14</v>
+        <v>9.06</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>6400</v>
+        <v>4800</v>
       </c>
       <c r="M7">
-        <v>6400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>44644</v>
+        <v>44631</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>44686</v>
+        <v>44673</v>
       </c>
       <c r="G8">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
       <c r="H8">
-        <v>16.77</v>
+        <v>30.38</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>1301</v>
+        <v>123</v>
       </c>
       <c r="M8">
-        <v>1301</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="G9">
-        <v>1.93</v>
+        <v>16.75</v>
       </c>
       <c r="H9">
-        <v>46.53</v>
+        <v>17.59</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L9">
-        <v>334</v>
+        <v>1028</v>
       </c>
       <c r="M9">
-        <v>334</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>44630</v>
+        <v>44652</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>44671</v>
+        <v>44694</v>
       </c>
       <c r="G10">
-        <v>1.69</v>
+        <v>16.75</v>
       </c>
       <c r="H10">
-        <v>9.34</v>
+        <v>17.59</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L10">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>400</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="G11">
-        <v>1.73</v>
+        <v>16.75</v>
       </c>
       <c r="H11">
-        <v>9.06</v>
+        <v>17.59</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>4800</v>
+        <v>698</v>
       </c>
       <c r="M11">
-        <v>4800</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="G12">
-        <v>1.34</v>
+        <v>16.75</v>
       </c>
       <c r="H12">
-        <v>9.130000000000001</v>
+        <v>17.59</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="M12">
-        <v>1800</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>44631</v>
+        <v>44655</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>44673</v>
+        <v>44697</v>
       </c>
       <c r="G13">
-        <v>0.95</v>
+        <v>16.2</v>
       </c>
       <c r="H13">
-        <v>30.38</v>
+        <v>17.66</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>123</v>
+        <v>1200</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>44652</v>
+        <v>44623</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
-        <v>44694</v>
+        <v>44663</v>
       </c>
       <c r="G14">
-        <v>16.75</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
-        <v>17.59</v>
+        <v>14.95</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>1028</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>1028</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>44652</v>
+        <v>44630</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>44694</v>
+        <v>44671</v>
       </c>
       <c r="G15">
-        <v>16.75</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>17.59</v>
+        <v>14.42</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>44652</v>
+        <v>44630</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>44694</v>
+        <v>44671</v>
       </c>
       <c r="G16">
-        <v>16.75</v>
+        <v>1.65</v>
       </c>
       <c r="H16">
-        <v>17.59</v>
+        <v>14.42</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L16">
-        <v>698</v>
+        <v>492</v>
       </c>
       <c r="M16">
-        <v>698</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>44694</v>
+        <v>44664</v>
       </c>
       <c r="G17">
-        <v>16.75</v>
+        <v>1.57</v>
       </c>
       <c r="H17">
-        <v>17.59</v>
+        <v>15.05</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L17">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>44655</v>
+        <v>44629</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>44697</v>
+        <v>44670</v>
       </c>
       <c r="G18">
-        <v>16.2</v>
+        <v>1.6</v>
       </c>
       <c r="H18">
-        <v>17.66</v>
+        <v>13.84</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="M18">
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="G19">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H19">
-        <v>14.95</v>
+        <v>13.84</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44617</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44659</v>
+      </c>
+      <c r="G20">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H20">
+        <v>33.47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2">
-        <v>44630</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44671</v>
-      </c>
-      <c r="G20">
-        <v>1.65</v>
-      </c>
-      <c r="H20">
-        <v>14.42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>490</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>44630</v>
+        <v>44624</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1530,80 +1494,80 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="G21">
-        <v>1.65</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H21">
-        <v>14.42</v>
+        <v>35.02</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21">
-        <v>492</v>
+        <v>7457</v>
       </c>
       <c r="M21">
-        <v>492</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="G22">
-        <v>1.57</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H22">
-        <v>15.05</v>
+        <v>34.67</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3368</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>44629</v>
+        <v>44623</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1612,200 +1576,200 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H23">
-        <v>13.84</v>
+        <v>34.67</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>1150</v>
+        <v>2232</v>
       </c>
       <c r="M23">
-        <v>1150</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="G24">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <v>13.84</v>
+        <v>34.42</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L24">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="M24">
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>44655</v>
+        <v>44645</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>44741</v>
+        <v>44687</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H25">
-        <v>17.66</v>
+        <v>36.04</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L25">
-        <v>9500</v>
+        <v>84</v>
       </c>
       <c r="M25">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>44617</v>
+        <v>44645</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>44659</v>
+        <v>44687</v>
       </c>
       <c r="G26">
-        <v>0.8999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="H26">
-        <v>33.47</v>
+        <v>36.04</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L26">
-        <v>490</v>
+        <v>1807</v>
       </c>
       <c r="M26">
-        <v>490</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2">
-        <v>44664</v>
+        <v>44697</v>
       </c>
       <c r="G27">
-        <v>0.6799999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H27">
-        <v>35.02</v>
+        <v>39.12</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L27">
-        <v>11615</v>
+        <v>20348</v>
       </c>
       <c r="M27">
-        <v>2510</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>44629</v>
@@ -1814,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
         <v>44670</v>
@@ -1829,13 +1793,13 @@
         <v>15.65</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L28">
         <v>1600</v>
@@ -1846,7 +1810,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>44631</v>
@@ -1855,10 +1819,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2">
         <v>44673</v>
@@ -1870,13 +1834,13 @@
         <v>14.36</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L29">
         <v>1600</v>
@@ -1887,7 +1851,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>44651</v>
@@ -1896,10 +1860,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
         <v>44693</v>
@@ -1911,13 +1875,13 @@
         <v>15.41</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L30">
         <v>544</v>
@@ -1928,7 +1892,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>44651</v>
@@ -1937,10 +1901,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2">
         <v>44693</v>
@@ -1952,24 +1916,24 @@
         <v>15.41</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L31">
         <v>3300</v>
       </c>
       <c r="M31">
-        <v>2900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>44629</v>
@@ -1978,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2">
         <v>44670</v>
@@ -1993,24 +1957,24 @@
         <v>20.73</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
         <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L32">
         <v>1300</v>
       </c>
       <c r="M32">
-        <v>1300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
         <v>44623</v>
@@ -2019,10 +1983,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2">
         <v>44663</v>
@@ -2034,396 +1998,396 @@
         <v>17.65</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <v>350</v>
       </c>
       <c r="M33">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2">
-        <v>44631</v>
+        <v>44650</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>44673</v>
+        <v>45015</v>
       </c>
       <c r="G34">
-        <v>6.84</v>
+        <v>0.5</v>
       </c>
       <c r="H34">
-        <v>16.99</v>
+        <v>10.85</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>354900</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>26589</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
-        <v>44629</v>
+        <v>44566</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2">
-        <v>44670</v>
+        <v>44746</v>
       </c>
       <c r="G35">
-        <v>6.84</v>
+        <v>0.5</v>
       </c>
       <c r="H35">
-        <v>16.33</v>
+        <v>12.07</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L35">
-        <v>600</v>
+        <v>1599</v>
       </c>
       <c r="M35">
-        <v>600</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B36" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2">
-        <v>44694</v>
+        <v>45016</v>
       </c>
       <c r="G36">
-        <v>5.79</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
-        <v>16.07</v>
+        <v>19.11</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L36">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>44687</v>
+        <v>45016</v>
       </c>
       <c r="G37">
-        <v>3.85</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>30.38</v>
+        <v>19.11</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M37">
-        <v>1700</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2">
-        <v>44687</v>
+        <v>45016</v>
       </c>
       <c r="G38">
-        <v>3.85</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>30.38</v>
+        <v>19.11</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L38">
-        <v>448</v>
+        <v>1200</v>
       </c>
       <c r="M38">
-        <v>448</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2">
-        <v>44616</v>
+        <v>44655</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2">
-        <v>44658</v>
+        <v>45016</v>
       </c>
       <c r="G39">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H39">
-        <v>10.24</v>
+        <v>19.11</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L39">
-        <v>864</v>
+        <v>2100</v>
       </c>
       <c r="M39">
-        <v>864</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2">
-        <v>44658</v>
+        <v>45016</v>
       </c>
       <c r="G40">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>10.24</v>
+        <v>18.86</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L40">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="M40">
-        <v>400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2">
-        <v>44629</v>
+        <v>44651</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2">
-        <v>44670</v>
+        <v>45016</v>
       </c>
       <c r="G41">
-        <v>11.24</v>
+        <v>0.5</v>
       </c>
       <c r="H41">
-        <v>13.03</v>
+        <v>18.86</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L41">
-        <v>409</v>
+        <v>700</v>
       </c>
       <c r="M41">
-        <v>309</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2">
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>44658</v>
+        <v>45016</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H42">
-        <v>18.98</v>
+        <v>18.86</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L42">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2432,80 +2396,80 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G43">
         <v>0.5</v>
       </c>
       <c r="H43">
-        <v>10.85</v>
+        <v>18.83</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L43">
-        <v>354900</v>
+        <v>2500</v>
       </c>
       <c r="M43">
-        <v>49189</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2">
-        <v>44615</v>
+        <v>44652</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2">
-        <v>44657</v>
+        <v>45016</v>
       </c>
       <c r="G44">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="H44">
-        <v>16.83</v>
+        <v>18.83</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L44">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M44">
-        <v>400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2514,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2">
         <v>45016</v>
@@ -2523,30 +2487,30 @@
         <v>0.5</v>
       </c>
       <c r="H45">
-        <v>19.11</v>
+        <v>18.83</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L45">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="M45">
-        <v>2100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="B46" s="2">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2555,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="2">
         <v>45016</v>
@@ -2564,30 +2528,30 @@
         <v>0.5</v>
       </c>
       <c r="H46">
-        <v>19.11</v>
+        <v>18.83</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L46">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="M46">
-        <v>2600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2596,7 +2560,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" s="2">
         <v>45016</v>
@@ -2605,30 +2569,30 @@
         <v>0.5</v>
       </c>
       <c r="H47">
-        <v>19.11</v>
+        <v>18.83</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L47">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M47">
-        <v>1200</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2637,769 +2601,400 @@
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" s="2">
-        <v>45016</v>
+        <v>44741</v>
       </c>
       <c r="G48">
         <v>0.5</v>
       </c>
       <c r="H48">
-        <v>19.11</v>
+        <v>24.32</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L48">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="M48">
-        <v>2100</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2">
-        <v>44651</v>
+        <v>44629</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2">
-        <v>45016</v>
+        <v>44670</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H49">
-        <v>18.86</v>
+        <v>39.25</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L49">
-        <v>1500</v>
+        <v>18900</v>
       </c>
       <c r="M49">
-        <v>1500</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2">
-        <v>44651</v>
+        <v>44627</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2">
-        <v>45016</v>
+        <v>44665</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H50">
-        <v>18.86</v>
+        <v>38.67</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L50">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="M50">
-        <v>700</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2">
-        <v>44651</v>
+        <v>44624</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2">
-        <v>45016</v>
+        <v>44664</v>
       </c>
       <c r="G51">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H51">
-        <v>18.86</v>
+        <v>38.44</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L51">
-        <v>600</v>
+        <v>1899</v>
       </c>
       <c r="M51">
-        <v>600</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2">
-        <v>45016</v>
+        <v>44664</v>
       </c>
       <c r="G52">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H52">
-        <v>18.83</v>
+        <v>38.44</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L52">
-        <v>2500</v>
+        <v>3633</v>
       </c>
       <c r="M52">
-        <v>2500</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2">
-        <v>45016</v>
+        <v>44699</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>18.83</v>
+        <v>35.55</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L53">
-        <v>1500</v>
+        <v>3771</v>
       </c>
       <c r="M53">
-        <v>1500</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2">
-        <v>45016</v>
+        <v>44699</v>
       </c>
       <c r="G54">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H54">
-        <v>18.83</v>
+        <v>122.62</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L54">
-        <v>1000</v>
+        <v>59</v>
       </c>
       <c r="M54">
-        <v>933</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2">
-        <v>44741</v>
+        <v>44699</v>
       </c>
       <c r="G55">
-        <v>0.5</v>
+        <v>7.85</v>
       </c>
       <c r="H55">
-        <v>24.32</v>
+        <v>44.37</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L55">
-        <v>4400</v>
+        <v>1353</v>
       </c>
       <c r="M55">
-        <v>4400</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2">
-        <v>44629</v>
+        <v>44657</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="2">
-        <v>44670</v>
+        <v>44699</v>
       </c>
       <c r="G56">
-        <v>0.03</v>
+        <v>7.85</v>
       </c>
       <c r="H56">
-        <v>28.55</v>
+        <v>44.37</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L56">
-        <v>14585</v>
+        <v>806</v>
       </c>
       <c r="M56">
-        <v>7557</v>
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2">
-        <v>44629</v>
+        <v>44645</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" s="2">
-        <v>44670</v>
+        <v>44687</v>
       </c>
       <c r="G57">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="H57">
-        <v>39.25</v>
+        <v>96.67</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L57">
-        <v>18900</v>
+        <v>46362</v>
       </c>
       <c r="M57">
-        <v>18900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1">
-        <v>235</v>
-      </c>
-      <c r="B58" s="2">
-        <v>44627</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="2">
-        <v>44665</v>
-      </c>
-      <c r="G58">
-        <v>0.12</v>
-      </c>
-      <c r="H58">
-        <v>38.67</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" t="s">
-        <v>97</v>
-      </c>
-      <c r="L58">
-        <v>3800</v>
-      </c>
-      <c r="M58">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1">
-        <v>236</v>
-      </c>
-      <c r="B59" s="2">
-        <v>44624</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="2">
-        <v>44664</v>
-      </c>
-      <c r="G59">
-        <v>0.12</v>
-      </c>
-      <c r="H59">
-        <v>38.44</v>
-      </c>
-      <c r="I59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" t="s">
-        <v>98</v>
-      </c>
-      <c r="L59">
-        <v>1899</v>
-      </c>
-      <c r="M59">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1">
-        <v>237</v>
-      </c>
-      <c r="B60" s="2">
-        <v>44624</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="2">
-        <v>44664</v>
-      </c>
-      <c r="G60">
-        <v>0.12</v>
-      </c>
-      <c r="H60">
-        <v>38.44</v>
-      </c>
-      <c r="I60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s">
-        <v>99</v>
-      </c>
-      <c r="L60">
-        <v>3633</v>
-      </c>
-      <c r="M60">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1">
-        <v>238</v>
-      </c>
-      <c r="B61" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="2">
-        <v>44693</v>
-      </c>
-      <c r="G61">
-        <v>0.5</v>
-      </c>
-      <c r="H61">
-        <v>55.66</v>
-      </c>
-      <c r="I61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K61" t="s">
-        <v>100</v>
-      </c>
-      <c r="L61">
-        <v>1400</v>
-      </c>
-      <c r="M61">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1">
-        <v>239</v>
-      </c>
-      <c r="B62" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="2">
-        <v>44693</v>
-      </c>
-      <c r="G62">
-        <v>0.5</v>
-      </c>
-      <c r="H62">
-        <v>55.66</v>
-      </c>
-      <c r="I62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62" t="s">
-        <v>101</v>
-      </c>
-      <c r="L62">
-        <v>1300</v>
-      </c>
-      <c r="M62">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>240</v>
-      </c>
-      <c r="B63" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="2">
-        <v>44693</v>
-      </c>
-      <c r="G63">
-        <v>0.5</v>
-      </c>
-      <c r="H63">
-        <v>55.66</v>
-      </c>
-      <c r="I63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" t="s">
-        <v>39</v>
-      </c>
-      <c r="K63" t="s">
-        <v>102</v>
-      </c>
-      <c r="L63">
-        <v>1100</v>
-      </c>
-      <c r="M63">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="2">
-        <v>44693</v>
-      </c>
-      <c r="G64">
-        <v>0.5</v>
-      </c>
-      <c r="H64">
-        <v>55.66</v>
-      </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" t="s">
-        <v>103</v>
-      </c>
-      <c r="L64">
-        <v>1000</v>
-      </c>
-      <c r="M64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>242</v>
-      </c>
-      <c r="B65" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="2">
-        <v>44693</v>
-      </c>
-      <c r="G65">
-        <v>0.5</v>
-      </c>
-      <c r="H65">
-        <v>55.66</v>
-      </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" t="s">
-        <v>104</v>
-      </c>
-      <c r="L65">
-        <v>1000</v>
-      </c>
-      <c r="M65">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>249</v>
-      </c>
-      <c r="B66" s="2">
-        <v>44645</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="2">
-        <v>44687</v>
-      </c>
-      <c r="G66">
-        <v>0.08</v>
-      </c>
-      <c r="H66">
-        <v>96.67</v>
-      </c>
-      <c r="I66" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" t="s">
-        <v>40</v>
-      </c>
-      <c r="K66" t="s">
-        <v>105</v>
-      </c>
-      <c r="L66">
-        <v>46362</v>
-      </c>
-      <c r="M66">
-        <v>33856</v>
+        <v>15556</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="101">
   <si>
     <t>Data</t>
   </si>
@@ -58,13 +58,13 @@
     <t>MERRILL LYNCH S/A CTVM</t>
   </si>
   <si>
-    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+    <t>BTG PACTUAL CTVM S/A</t>
   </si>
   <si>
     <t>ITAU CV S/A</t>
   </si>
   <si>
-    <t>BTG PACTUAL CTVM S/A</t>
+    <t>UBS BRASIL CCTVM S/A</t>
   </si>
   <si>
     <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
@@ -76,16 +76,13 @@
     <t>TD</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>BRKM5</t>
   </si>
   <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>CYRE3</t>
@@ -94,61 +91,43 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ENBR3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
     <t>LWSA3</t>
   </si>
   <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
     <t>PETZ3</t>
   </si>
   <si>
     <t>PRIO3</t>
   </si>
   <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>SMAL11</t>
   </si>
   <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
     <t>VALE3</t>
   </si>
   <si>
-    <t>2022031000335589240001-1</t>
-  </si>
-  <si>
-    <t>2022031100335838420001-1</t>
-  </si>
-  <si>
-    <t>2022030900335200610001-1</t>
+    <t>2022041200342190740001-1</t>
   </si>
   <si>
     <t>2022031100335900030001-1</t>
   </si>
   <si>
-    <t>2022031000335589270001-1</t>
-  </si>
-  <si>
-    <t>2022030900335401210001-1</t>
-  </si>
-  <si>
-    <t>2022031100335900250001-1</t>
+    <t>2022040500340864590001-1</t>
+  </si>
+  <si>
+    <t>2022040800341525210001-1</t>
+  </si>
+  <si>
+    <t>2022040800341679160001-1</t>
+  </si>
+  <si>
+    <t>2022040100340127860001-1</t>
   </si>
   <si>
     <t>2022040100340127810001-1</t>
@@ -166,72 +145,111 @@
     <t>2022040400333117240001-2</t>
   </si>
   <si>
-    <t>2022030300333891860001-1</t>
-  </si>
-  <si>
-    <t>2022031000321886990001-2</t>
-  </si>
-  <si>
-    <t>2022031000321887010001-2</t>
-  </si>
-  <si>
-    <t>2022030400334400740001-1</t>
-  </si>
-  <si>
-    <t>2022030900335288940001-1</t>
-  </si>
-  <si>
-    <t>2022030900335342430001-1</t>
-  </si>
-  <si>
-    <t>2022022500333136590001-1</t>
-  </si>
-  <si>
-    <t>2022030400334400840001-1</t>
-  </si>
-  <si>
-    <t>2022030300334054620001-1</t>
-  </si>
-  <si>
-    <t>2022030300334054630001-1</t>
-  </si>
-  <si>
-    <t>2022030700334729880001-1</t>
-  </si>
-  <si>
-    <t>2022032500331177700001-2</t>
-  </si>
-  <si>
-    <t>2022032500338980540001-1</t>
-  </si>
-  <si>
-    <t>2022040400333117260001-2</t>
-  </si>
-  <si>
-    <t>2022030900335295750001-1</t>
-  </si>
-  <si>
-    <t>2022031100335910050001-1</t>
-  </si>
-  <si>
-    <t>2022033100332322300001-2</t>
-  </si>
-  <si>
-    <t>2022033100332460950001-2</t>
-  </si>
-  <si>
-    <t>2022030900335331020001-1</t>
-  </si>
-  <si>
-    <t>2022030300334099150001-1</t>
-  </si>
-  <si>
-    <t>2022033000339841070001-1</t>
+    <t>2022040800334400740001-2</t>
+  </si>
+  <si>
+    <t>2022041300335342430001-2</t>
+  </si>
+  <si>
+    <t>2022040400340680610001-1</t>
+  </si>
+  <si>
+    <t>2022041200342109570001-1</t>
+  </si>
+  <si>
+    <t>2022042000343663340001-1</t>
   </si>
   <si>
     <t>2022010500323158650001-1</t>
   </si>
   <si>
+    <t>2022040400340607060001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607080001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607090001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607100001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607110001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607170001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607180001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607200001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607210001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607230001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607240001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607250001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607260001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607280001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607290001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607300001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607310001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607320001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607330001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607340001-1</t>
+  </si>
+  <si>
+    <t>2022040800341679180001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607540001-1</t>
+  </si>
+  <si>
+    <t>2022041200342106330001-1</t>
+  </si>
+  <si>
+    <t>2022040800341739040001-1</t>
+  </si>
+  <si>
+    <t>2022041400342805710001-1</t>
+  </si>
+  <si>
+    <t>2022041800343242310001-1</t>
+  </si>
+  <si>
+    <t>2022041900343459170001-1</t>
+  </si>
+  <si>
+    <t>2022041300342579090001-1</t>
+  </si>
+  <si>
+    <t>2022041800343242330001-1</t>
+  </si>
+  <si>
     <t>2022040400340607390001-1</t>
   </si>
   <si>
@@ -250,49 +268,52 @@
     <t>2022033100340034850001-1</t>
   </si>
   <si>
-    <t>2022033100340034910001-1</t>
-  </si>
-  <si>
     <t>2022040100340230510001-1</t>
   </si>
   <si>
     <t>2022040100340230610001-1</t>
   </si>
   <si>
-    <t>2022040100340230710001-1</t>
-  </si>
-  <si>
     <t>2022040100340230790001-1</t>
   </si>
   <si>
-    <t>2022040100340230930001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229380001-1</t>
-  </si>
-  <si>
-    <t>2022030900335347130001-1</t>
-  </si>
-  <si>
-    <t>2022030700334726560001-1</t>
-  </si>
-  <si>
-    <t>2022030400334338890001-1</t>
-  </si>
-  <si>
-    <t>2022030400334338900001-1</t>
-  </si>
-  <si>
-    <t>2022040600341193880001-1</t>
+    <t>2022040100340231040001-1</t>
+  </si>
+  <si>
+    <t>2022041400335584450001-2</t>
+  </si>
+  <si>
+    <t>2022041400335584460001-2</t>
+  </si>
+  <si>
+    <t>2022041400335687140001-2</t>
+  </si>
+  <si>
+    <t>2022041400335687150001-2</t>
+  </si>
+  <si>
+    <t>2022041300335340400001-2</t>
+  </si>
+  <si>
+    <t>2022041300342559650001-1</t>
+  </si>
+  <si>
+    <t>2022041200330593030001-2</t>
+  </si>
+  <si>
+    <t>2022041200342190720001-1</t>
+  </si>
+  <si>
+    <t>2022041200342347490001-1</t>
+  </si>
+  <si>
+    <t>2022041800343242360001-1</t>
+  </si>
+  <si>
+    <t>2022031400336172480001-1</t>
   </si>
   <si>
     <t>2022040600341185990001-1</t>
-  </si>
-  <si>
-    <t>2022040600341194270001-1</t>
-  </si>
-  <si>
-    <t>2022040600341194280001-1</t>
   </si>
   <si>
     <t>2022032500338996780001-1</t>
@@ -657,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +724,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>44630</v>
+        <v>44663</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -718,13 +739,13 @@
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>44671</v>
+        <v>44705</v>
       </c>
       <c r="G2">
-        <v>2.04</v>
+        <v>5.29</v>
       </c>
       <c r="H2">
-        <v>16.35</v>
+        <v>45.33</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -733,18 +754,18 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>1362</v>
       </c>
       <c r="M2">
-        <v>300</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>44631</v>
@@ -762,10 +783,10 @@
         <v>44673</v>
       </c>
       <c r="G3">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="H3">
-        <v>15.87</v>
+        <v>46.53</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -774,21 +795,21 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L3">
-        <v>2300</v>
+        <v>334</v>
       </c>
       <c r="M3">
-        <v>2300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>44629</v>
+        <v>44656</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -800,77 +821,77 @@
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>44670</v>
+        <v>44838</v>
       </c>
       <c r="G4">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>15.14</v>
+        <v>2.77</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L4">
-        <v>6400</v>
+        <v>63500</v>
       </c>
       <c r="M4">
-        <v>3734</v>
+        <v>56819</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>44631</v>
+        <v>44659</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>44673</v>
+        <v>44701</v>
       </c>
       <c r="G5">
-        <v>1.93</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
-        <v>46.53</v>
+        <v>24.97</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L5">
-        <v>334</v>
+        <v>3100</v>
       </c>
       <c r="M5">
-        <v>334</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>44630</v>
+        <v>44659</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -882,13 +903,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="G6">
-        <v>1.69</v>
+        <v>0.06</v>
       </c>
       <c r="H6">
-        <v>9.34</v>
+        <v>24.97</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -897,21 +918,21 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L6">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="M6">
-        <v>400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -923,13 +944,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="G7">
-        <v>1.73</v>
+        <v>0.04</v>
       </c>
       <c r="H7">
-        <v>9.06</v>
+        <v>26.31</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -938,21 +959,21 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L7">
-        <v>4800</v>
+        <v>68347</v>
       </c>
       <c r="M7">
-        <v>2600</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -964,13 +985,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="G8">
-        <v>0.95</v>
+        <v>16.75</v>
       </c>
       <c r="H8">
-        <v>30.38</v>
+        <v>17.59</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -979,18 +1000,18 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L8">
-        <v>123</v>
+        <v>1028</v>
       </c>
       <c r="M8">
-        <v>123</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>44652</v>
@@ -1017,21 +1038,21 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L9">
-        <v>1028</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>1028</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>44652</v>
@@ -1058,21 +1079,21 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>698</v>
       </c>
       <c r="M10">
-        <v>127</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>44652</v>
@@ -1099,24 +1120,24 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L11">
-        <v>698</v>
+        <v>180</v>
       </c>
       <c r="M11">
-        <v>698</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1128,36 +1149,36 @@
         <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="G12">
-        <v>16.75</v>
+        <v>16.2</v>
       </c>
       <c r="H12">
-        <v>17.59</v>
+        <v>17.66</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L12">
-        <v>180</v>
+        <v>1200</v>
       </c>
       <c r="M12">
-        <v>180</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1169,36 +1190,36 @@
         <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>44697</v>
+        <v>44701</v>
       </c>
       <c r="G13">
-        <v>16.2</v>
+        <v>14.48</v>
       </c>
       <c r="H13">
-        <v>17.66</v>
+        <v>16.08</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>1200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>44623</v>
+        <v>44664</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1210,136 +1231,136 @@
         <v>18</v>
       </c>
       <c r="F14" s="2">
-        <v>44663</v>
+        <v>44706</v>
       </c>
       <c r="G14">
-        <v>1.6</v>
+        <v>14.15</v>
       </c>
       <c r="H14">
-        <v>14.95</v>
+        <v>15.61</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>44630</v>
+        <v>44655</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>44671</v>
+        <v>44741</v>
       </c>
       <c r="G15">
-        <v>1.65</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>14.42</v>
+        <v>17.66</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>9500</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>44630</v>
+        <v>44663</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>44671</v>
+        <v>44683</v>
       </c>
       <c r="G16">
-        <v>1.65</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
-        <v>14.42</v>
+        <v>15.5</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L16">
-        <v>492</v>
+        <v>18000</v>
       </c>
       <c r="M16">
-        <v>492</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>44624</v>
+        <v>44671</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>44664</v>
+        <v>45036</v>
       </c>
       <c r="G17">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
-        <v>15.05</v>
+        <v>40.88</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
@@ -1348,121 +1369,121 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>92100</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>19767</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>44629</v>
+        <v>44566</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>44670</v>
+        <v>44746</v>
       </c>
       <c r="G18">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>13.84</v>
+        <v>12.07</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L18">
-        <v>1150</v>
+        <v>1599</v>
       </c>
       <c r="M18">
-        <v>1150</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>44670</v>
+        <v>44838</v>
       </c>
       <c r="G19">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="H19">
-        <v>13.84</v>
+        <v>10.48</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L19">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M19">
-        <v>220</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>44617</v>
+        <v>44655</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>44659</v>
+        <v>44838</v>
       </c>
       <c r="G20">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H20">
-        <v>33.47</v>
+        <v>10.48</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1471,39 +1492,39 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L20">
-        <v>490</v>
+        <v>20000</v>
       </c>
       <c r="M20">
-        <v>490</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="2">
-        <v>44664</v>
+        <v>44838</v>
       </c>
       <c r="G21">
-        <v>0.6799999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H21">
-        <v>35.02</v>
+        <v>10.48</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -1512,39 +1533,39 @@
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>7457</v>
+        <v>7000</v>
       </c>
       <c r="M21">
-        <v>7457</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>44623</v>
+        <v>44655</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="2">
-        <v>44663</v>
+        <v>44838</v>
       </c>
       <c r="G22">
-        <v>0.6799999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H22">
-        <v>34.67</v>
+        <v>10.48</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -1553,39 +1574,39 @@
         <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L22">
-        <v>3368</v>
+        <v>4800</v>
       </c>
       <c r="M22">
-        <v>3368</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>44623</v>
+        <v>44655</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2">
-        <v>44663</v>
+        <v>44838</v>
       </c>
       <c r="G23">
-        <v>0.6799999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H23">
-        <v>34.67</v>
+        <v>10.48</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -1594,39 +1615,39 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>2232</v>
+        <v>5000</v>
       </c>
       <c r="M23">
-        <v>2232</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
-        <v>44627</v>
+        <v>44655</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2">
-        <v>44665</v>
+        <v>44838</v>
       </c>
       <c r="G24">
         <v>0.5</v>
       </c>
       <c r="H24">
-        <v>34.42</v>
+        <v>10.48</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -1635,39 +1656,39 @@
         <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L24">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="M24">
-        <v>3200</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>44687</v>
+        <v>44838</v>
       </c>
       <c r="G25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>36.04</v>
+        <v>10.48</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -1676,39 +1697,39 @@
         <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L25">
-        <v>84</v>
+        <v>6300</v>
       </c>
       <c r="M25">
-        <v>84</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>44687</v>
+        <v>44838</v>
       </c>
       <c r="G26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H26">
-        <v>36.04</v>
+        <v>10.48</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -1717,18 +1738,18 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L26">
-        <v>1807</v>
+        <v>14000</v>
       </c>
       <c r="M26">
-        <v>1807</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>44655</v>
@@ -1737,19 +1758,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="2">
-        <v>44697</v>
+        <v>44838</v>
       </c>
       <c r="G27">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <v>39.12</v>
+        <v>10.48</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -1758,346 +1779,346 @@
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L27">
-        <v>20348</v>
+        <v>2500</v>
       </c>
       <c r="M27">
-        <v>11629</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>44670</v>
+        <v>44838</v>
       </c>
       <c r="G28">
-        <v>1.35</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
-        <v>15.65</v>
+        <v>10.48</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L28">
-        <v>1600</v>
+        <v>19500</v>
       </c>
       <c r="M28">
-        <v>1600</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>44631</v>
+        <v>44655</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>44673</v>
+        <v>44838</v>
       </c>
       <c r="G29">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="H29">
-        <v>14.36</v>
+        <v>10.48</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L29">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="M29">
-        <v>1600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>44693</v>
+        <v>44838</v>
       </c>
       <c r="G30">
-        <v>0.8699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H30">
-        <v>15.41</v>
+        <v>10.48</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L30">
-        <v>544</v>
+        <v>2700</v>
       </c>
       <c r="M30">
-        <v>544</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>44693</v>
+        <v>44838</v>
       </c>
       <c r="G31">
-        <v>0.8699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>15.41</v>
+        <v>10.48</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L31">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M31">
-        <v>3300</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="2">
-        <v>44670</v>
+        <v>44838</v>
       </c>
       <c r="G32">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H32">
-        <v>20.73</v>
+        <v>10.48</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L32">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M32">
-        <v>200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>44623</v>
+        <v>44655</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="2">
-        <v>44663</v>
+        <v>44838</v>
       </c>
       <c r="G33">
-        <v>7.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>17.65</v>
+        <v>10.48</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L33">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="M33">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>45015</v>
+        <v>44838</v>
       </c>
       <c r="G34">
         <v>0.5</v>
       </c>
       <c r="H34">
-        <v>10.85</v>
+        <v>10.48</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L34">
-        <v>354900</v>
+        <v>1900</v>
       </c>
       <c r="M34">
-        <v>26589</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>44566</v>
+        <v>44655</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="2">
-        <v>44746</v>
+        <v>44838</v>
       </c>
       <c r="G35">
         <v>0.5</v>
       </c>
       <c r="H35">
-        <v>12.07</v>
+        <v>10.48</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L35">
-        <v>1599</v>
+        <v>3000</v>
       </c>
       <c r="M35">
-        <v>491</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>44655</v>
@@ -2106,39 +2127,39 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G36">
         <v>0.5</v>
       </c>
       <c r="H36">
-        <v>19.11</v>
+        <v>10.48</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L36">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="M36">
-        <v>2100</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
         <v>44655</v>
@@ -2147,39 +2168,39 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G37">
         <v>0.5</v>
       </c>
       <c r="H37">
-        <v>19.11</v>
+        <v>10.48</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L37">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M37">
-        <v>2600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>44655</v>
@@ -2188,813 +2209,1346 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G38">
         <v>0.5</v>
       </c>
       <c r="H38">
-        <v>19.11</v>
+        <v>10.48</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L38">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M38">
-        <v>1200</v>
+        <v>992</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="2">
-        <v>45016</v>
+        <v>44701</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>3.88</v>
       </c>
       <c r="H39">
-        <v>19.11</v>
+        <v>6.6</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L39">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="M39">
-        <v>2100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="2">
-        <v>45016</v>
+        <v>44712</v>
       </c>
       <c r="G40">
         <v>0.5</v>
       </c>
       <c r="H40">
-        <v>18.86</v>
+        <v>7.16</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L40">
-        <v>1500</v>
+        <v>21800</v>
       </c>
       <c r="M40">
-        <v>1500</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="2">
-        <v>45016</v>
+        <v>44840</v>
       </c>
       <c r="G41">
         <v>0.5</v>
       </c>
       <c r="H41">
-        <v>18.86</v>
+        <v>6.06</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L41">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="M41">
-        <v>700</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2">
-        <v>44651</v>
+        <v>44659</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>45016</v>
+        <v>44720</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>18.86</v>
+        <v>6.6</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L42">
-        <v>600</v>
+        <v>50200</v>
       </c>
       <c r="M42">
-        <v>600</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="2">
-        <v>45016</v>
+        <v>44726</v>
       </c>
       <c r="G43">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H43">
-        <v>18.83</v>
+        <v>6.04</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L43">
-        <v>2500</v>
+        <v>31600</v>
       </c>
       <c r="M43">
-        <v>2500</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2">
-        <v>44652</v>
+        <v>44669</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="2">
-        <v>45016</v>
+        <v>44848</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H44">
-        <v>18.83</v>
+        <v>5.99</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L44">
-        <v>1500</v>
+        <v>98100</v>
       </c>
       <c r="M44">
-        <v>1500</v>
+        <v>98100</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2">
-        <v>44652</v>
+        <v>44670</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="2">
-        <v>45016</v>
+        <v>44847</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H45">
-        <v>18.83</v>
+        <v>5.91</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L45">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="M45">
-        <v>1000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2">
-        <v>44652</v>
+        <v>44664</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="2">
-        <v>45016</v>
+        <v>44820</v>
       </c>
       <c r="G46">
         <v>0.5</v>
       </c>
       <c r="H46">
-        <v>18.83</v>
+        <v>26.69</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L46">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M46">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2">
-        <v>44652</v>
+        <v>44669</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="2">
-        <v>45016</v>
+        <v>44823</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H47">
-        <v>18.83</v>
+        <v>25.33</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L47">
-        <v>700</v>
+        <v>13600</v>
       </c>
       <c r="M47">
-        <v>633</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="2">
-        <v>44741</v>
+        <v>45016</v>
       </c>
       <c r="G48">
         <v>0.5</v>
       </c>
       <c r="H48">
-        <v>24.32</v>
+        <v>19.11</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L48">
-        <v>4400</v>
+        <v>2100</v>
       </c>
       <c r="M48">
-        <v>3557</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="2">
-        <v>44670</v>
+        <v>45016</v>
       </c>
       <c r="G49">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H49">
-        <v>39.25</v>
+        <v>19.11</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L49">
-        <v>18900</v>
+        <v>2600</v>
       </c>
       <c r="M49">
-        <v>18900</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2">
-        <v>44627</v>
+        <v>44655</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="2">
-        <v>44665</v>
+        <v>45016</v>
       </c>
       <c r="G50">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H50">
-        <v>38.67</v>
+        <v>19.11</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K50" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L50">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="M50">
-        <v>3800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="2">
-        <v>44664</v>
+        <v>45016</v>
       </c>
       <c r="G51">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H51">
-        <v>38.44</v>
+        <v>19.11</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L51">
-        <v>1899</v>
+        <v>2100</v>
       </c>
       <c r="M51">
-        <v>1899</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2">
-        <v>44624</v>
+        <v>44651</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="2">
-        <v>44664</v>
+        <v>45016</v>
       </c>
       <c r="G52">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H52">
-        <v>38.44</v>
+        <v>18.86</v>
       </c>
       <c r="I52" t="s">
         <v>19</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L52">
-        <v>3633</v>
+        <v>1500</v>
       </c>
       <c r="M52">
-        <v>3633</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="2">
-        <v>44699</v>
+        <v>45016</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H53">
-        <v>35.55</v>
+        <v>18.86</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L53">
-        <v>3771</v>
+        <v>700</v>
       </c>
       <c r="M53">
-        <v>3771</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="2">
-        <v>44699</v>
+        <v>45016</v>
       </c>
       <c r="G54">
-        <v>8.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54">
-        <v>122.62</v>
+        <v>18.83</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>2500</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="2">
-        <v>44699</v>
+        <v>45016</v>
       </c>
       <c r="G55">
-        <v>7.85</v>
+        <v>0.5</v>
       </c>
       <c r="H55">
-        <v>44.37</v>
+        <v>18.83</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L55">
-        <v>1353</v>
+        <v>1500</v>
       </c>
       <c r="M55">
-        <v>1353</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>44657</v>
+        <v>44652</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="2">
-        <v>44699</v>
+        <v>45016</v>
       </c>
       <c r="G56">
-        <v>7.85</v>
+        <v>0.5</v>
       </c>
       <c r="H56">
-        <v>44.37</v>
+        <v>18.83</v>
       </c>
       <c r="I56" t="s">
         <v>19</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L56">
-        <v>806</v>
+        <v>1000</v>
       </c>
       <c r="M56">
-        <v>806</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
+        <v>121</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>18.83</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57">
+        <v>500</v>
+      </c>
+      <c r="M57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>122</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44665</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44707</v>
+      </c>
+      <c r="G58">
+        <v>0.14</v>
+      </c>
+      <c r="H58">
+        <v>24.09</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58">
+        <v>600</v>
+      </c>
+      <c r="M58">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>123</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44665</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2">
+        <v>44707</v>
+      </c>
+      <c r="G59">
+        <v>0.14</v>
+      </c>
+      <c r="H59">
+        <v>24.09</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" t="s">
+        <v>89</v>
+      </c>
+      <c r="L59">
+        <v>385</v>
+      </c>
+      <c r="M59">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44665</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="2">
+        <v>44707</v>
+      </c>
+      <c r="G60">
+        <v>0.14</v>
+      </c>
+      <c r="H60">
+        <v>24.09</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" t="s">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>1445</v>
+      </c>
+      <c r="M60">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>125</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44665</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2">
+        <v>44707</v>
+      </c>
+      <c r="G61">
+        <v>0.14</v>
+      </c>
+      <c r="H61">
+        <v>24.09</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61">
+        <v>6000</v>
+      </c>
+      <c r="M61">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>126</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44664</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44706</v>
+      </c>
+      <c r="G62">
+        <v>0.14</v>
+      </c>
+      <c r="H62">
+        <v>23.97</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62">
+        <v>14585</v>
+      </c>
+      <c r="M62">
+        <v>14585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
         <v>127</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B63" s="2">
+        <v>44664</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44706</v>
+      </c>
+      <c r="G63">
+        <v>0.14</v>
+      </c>
+      <c r="H63">
+        <v>23.97</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L63">
+        <v>12000</v>
+      </c>
+      <c r="M63">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44663</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2">
+        <v>44697</v>
+      </c>
+      <c r="G64">
+        <v>0.14</v>
+      </c>
+      <c r="H64">
+        <v>23.49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" t="s">
+        <v>94</v>
+      </c>
+      <c r="L64">
+        <v>6400</v>
+      </c>
+      <c r="M64">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44663</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2">
+        <v>44705</v>
+      </c>
+      <c r="G65">
+        <v>0.14</v>
+      </c>
+      <c r="H65">
+        <v>23.49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" t="s">
+        <v>95</v>
+      </c>
+      <c r="L65">
+        <v>5346</v>
+      </c>
+      <c r="M65">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44663</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2">
+        <v>44705</v>
+      </c>
+      <c r="G66">
+        <v>0.14</v>
+      </c>
+      <c r="H66">
+        <v>23.49</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>96</v>
+      </c>
+      <c r="L66">
+        <v>297</v>
+      </c>
+      <c r="M66">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44669</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45033</v>
+      </c>
+      <c r="G67">
+        <v>0.1</v>
+      </c>
+      <c r="H67">
+        <v>24.45</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" t="s">
+        <v>97</v>
+      </c>
+      <c r="L67">
+        <v>25800</v>
+      </c>
+      <c r="M67">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44634</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2">
+        <v>44676</v>
+      </c>
+      <c r="G68">
+        <v>0.03</v>
+      </c>
+      <c r="H68">
+        <v>25.32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68">
+        <v>2485</v>
+      </c>
+      <c r="M68">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44657</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2">
+        <v>44699</v>
+      </c>
+      <c r="G69">
+        <v>8.4</v>
+      </c>
+      <c r="H69">
+        <v>122.62</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>99</v>
+      </c>
+      <c r="L69">
+        <v>59</v>
+      </c>
+      <c r="M69">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>134</v>
+      </c>
+      <c r="B70" s="2">
         <v>44645</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
         <v>13</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2">
         <v>44687</v>
       </c>
-      <c r="G57">
+      <c r="G70">
         <v>0.08</v>
       </c>
-      <c r="H57">
+      <c r="H70">
         <v>96.67</v>
       </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" t="s">
-        <v>93</v>
-      </c>
-      <c r="L57">
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
+        <v>100</v>
+      </c>
+      <c r="L70">
         <v>46362</v>
       </c>
-      <c r="M57">
-        <v>15556</v>
+      <c r="M70">
+        <v>27400</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
   <si>
     <t>Data</t>
   </si>
@@ -58,37 +58,40 @@
     <t>MERRILL LYNCH S/A CTVM</t>
   </si>
   <si>
+    <t>TULLETT PREBON BRASIL CVC LTDA.</t>
+  </si>
+  <si>
     <t>BTG PACTUAL CTVM S/A</t>
   </si>
   <si>
+    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
+  </si>
+  <si>
     <t>ITAU CV S/A</t>
   </si>
   <si>
-    <t>UBS BRASIL CCTVM S/A</t>
-  </si>
-  <si>
-    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>BRKM5</t>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>ELET3</t>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>IVVB11</t>
   </si>
   <si>
     <t>LWSA3</t>
@@ -97,58 +100,46 @@
     <t>MGLU3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>NTCO3</t>
   </si>
   <si>
+    <t>PETR4</t>
+  </si>
+  <si>
     <t>PETZ3</t>
   </si>
   <si>
     <t>PRIO3</t>
   </si>
   <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
     <t>SMAL11</t>
   </si>
   <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>2022041200342190740001-1</t>
-  </si>
-  <si>
-    <t>2022031100335900030001-1</t>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>2022042500344509170001-1</t>
+  </si>
+  <si>
+    <t>2022042600344641690001-1</t>
   </si>
   <si>
     <t>2022040500340864590001-1</t>
   </si>
   <si>
-    <t>2022040800341525210001-1</t>
-  </si>
-  <si>
-    <t>2022040800341679160001-1</t>
-  </si>
-  <si>
-    <t>2022040100340127860001-1</t>
-  </si>
-  <si>
-    <t>2022040100340127810001-1</t>
-  </si>
-  <si>
-    <t>2022040100340127820001-1</t>
-  </si>
-  <si>
-    <t>2022040100340127830001-1</t>
-  </si>
-  <si>
-    <t>2022040100340127850001-1</t>
-  </si>
-  <si>
-    <t>2022040400333117240001-2</t>
-  </si>
-  <si>
-    <t>2022040800334400740001-2</t>
-  </si>
-  <si>
-    <t>2022041300335342430001-2</t>
+    <t>2022040500340864640001-1</t>
   </si>
   <si>
     <t>2022040400340680610001-1</t>
@@ -157,73 +148,13 @@
     <t>2022041200342109570001-1</t>
   </si>
   <si>
-    <t>2022042000343663340001-1</t>
-  </si>
-  <si>
-    <t>2022010500323158650001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607060001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607080001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607090001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607100001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607110001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607170001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607180001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607200001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607210001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607230001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607240001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607250001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607260001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607280001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607290001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607300001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607310001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607320001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607330001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607340001-1</t>
-  </si>
-  <si>
-    <t>2022040800341679180001-1</t>
+    <t>2022033000339841070001-1</t>
+  </si>
+  <si>
+    <t>2022040400333128960001-2</t>
+  </si>
+  <si>
+    <t>2022042700345517390001-1</t>
   </si>
   <si>
     <t>2022040400340607540001-1</t>
@@ -244,12 +175,45 @@
     <t>2022041900343459170001-1</t>
   </si>
   <si>
+    <t>2022042700345455480001-1</t>
+  </si>
+  <si>
+    <t>2022042800345720870001-1</t>
+  </si>
+  <si>
+    <t>2022041300342557920001-1</t>
+  </si>
+  <si>
+    <t>2022041200342348820001-1</t>
+  </si>
+  <si>
     <t>2022041300342579090001-1</t>
   </si>
   <si>
     <t>2022041800343242330001-1</t>
   </si>
   <si>
+    <t>2022041900343516610001-1</t>
+  </si>
+  <si>
+    <t>2022041300342557910001-1</t>
+  </si>
+  <si>
+    <t>2022041200342243870001-1</t>
+  </si>
+  <si>
+    <t>2022041400342849080001-1</t>
+  </si>
+  <si>
+    <t>2022041400342849100001-1</t>
+  </si>
+  <si>
+    <t>2022041900343484510001-1</t>
+  </si>
+  <si>
+    <t>2022041900343269790001-1</t>
+  </si>
+  <si>
     <t>2022040400340607390001-1</t>
   </si>
   <si>
@@ -271,52 +235,34 @@
     <t>2022040100340230510001-1</t>
   </si>
   <si>
-    <t>2022040100340230610001-1</t>
-  </si>
-  <si>
-    <t>2022040100340230790001-1</t>
-  </si>
-  <si>
-    <t>2022040100340231040001-1</t>
-  </si>
-  <si>
-    <t>2022041400335584450001-2</t>
-  </si>
-  <si>
-    <t>2022041400335584460001-2</t>
-  </si>
-  <si>
-    <t>2022041400335687140001-2</t>
-  </si>
-  <si>
-    <t>2022041400335687150001-2</t>
-  </si>
-  <si>
-    <t>2022041300335340400001-2</t>
-  </si>
-  <si>
-    <t>2022041300342559650001-1</t>
-  </si>
-  <si>
-    <t>2022041200330593030001-2</t>
-  </si>
-  <si>
-    <t>2022041200342190720001-1</t>
-  </si>
-  <si>
-    <t>2022041200342347490001-1</t>
-  </si>
-  <si>
     <t>2022041800343242360001-1</t>
   </si>
   <si>
-    <t>2022031400336172480001-1</t>
+    <t>2022040800334338900001-2</t>
+  </si>
+  <si>
+    <t>2022042700345489660001-1</t>
   </si>
   <si>
     <t>2022040600341185990001-1</t>
   </si>
   <si>
-    <t>2022032500338996780001-1</t>
+    <t>2022040100340229550001-1</t>
+  </si>
+  <si>
+    <t>2022040100340230320001-1</t>
+  </si>
+  <si>
+    <t>2022040600341194280001-1</t>
+  </si>
+  <si>
+    <t>2022042700345489210001-1</t>
+  </si>
+  <si>
+    <t>2022041200342190630001-1</t>
+  </si>
+  <si>
+    <t>2022041300342376540001-1</t>
   </si>
 </sst>
 </file>
@@ -678,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +670,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44663</v>
+        <v>44676</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -739,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>44705</v>
+        <v>44714</v>
       </c>
       <c r="G2">
-        <v>5.29</v>
+        <v>0.12</v>
       </c>
       <c r="H2">
-        <v>45.33</v>
+        <v>19.18</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -754,59 +700,59 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>1362</v>
+        <v>3992</v>
       </c>
       <c r="M2">
-        <v>1362</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44631</v>
+        <v>44677</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>44673</v>
+        <v>44715</v>
       </c>
       <c r="G3">
-        <v>1.93</v>
+        <v>8.34</v>
       </c>
       <c r="H3">
-        <v>46.53</v>
+        <v>16.95</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L3">
-        <v>334</v>
+        <v>3200</v>
       </c>
       <c r="M3">
-        <v>334</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>44656</v>
@@ -815,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -833,24 +779,24 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>63500</v>
       </c>
       <c r="M4">
-        <v>56819</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44659</v>
+        <v>44656</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -862,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>44701</v>
+        <v>44838</v>
       </c>
       <c r="G5">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>24.97</v>
+        <v>2.77</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -877,144 +823,144 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L5">
-        <v>3100</v>
+        <v>24900</v>
       </c>
       <c r="M5">
-        <v>3100</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>44659</v>
+        <v>44655</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>44701</v>
+        <v>44741</v>
       </c>
       <c r="G6">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>24.97</v>
+        <v>17.66</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>3600</v>
+        <v>9500</v>
       </c>
       <c r="M6">
-        <v>3600</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44683</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>15.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44694</v>
-      </c>
-      <c r="G7">
-        <v>0.04</v>
-      </c>
-      <c r="H7">
-        <v>26.31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>68347</v>
+        <v>18000</v>
       </c>
       <c r="M7">
-        <v>23300</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>44694</v>
+        <v>45015</v>
       </c>
       <c r="G8">
-        <v>16.75</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>17.59</v>
+        <v>10.85</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>1028</v>
+        <v>354900</v>
       </c>
       <c r="M8">
-        <v>1028</v>
+        <v>253800</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1026,36 +972,36 @@
         <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="G9">
-        <v>16.75</v>
+        <v>0.61</v>
       </c>
       <c r="H9">
-        <v>17.59</v>
+        <v>231.84</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>44652</v>
+        <v>44678</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1067,115 +1013,115 @@
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>44694</v>
+        <v>44718</v>
       </c>
       <c r="G10">
-        <v>16.75</v>
+        <v>2.32</v>
       </c>
       <c r="H10">
-        <v>17.59</v>
+        <v>7.48</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L10">
-        <v>698</v>
+        <v>9009</v>
       </c>
       <c r="M10">
-        <v>698</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>44694</v>
+        <v>44712</v>
       </c>
       <c r="G11">
-        <v>16.75</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>17.59</v>
+        <v>7.16</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>180</v>
+        <v>21800</v>
       </c>
       <c r="M11">
-        <v>180</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2">
-        <v>44655</v>
+        <v>44663</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>44697</v>
+        <v>44840</v>
       </c>
       <c r="G12">
-        <v>16.2</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>17.66</v>
+        <v>6.06</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M12">
-        <v>1200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2">
         <v>44659</v>
@@ -1184,695 +1130,695 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>44701</v>
+        <v>44720</v>
       </c>
       <c r="G13">
-        <v>14.48</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>16.08</v>
+        <v>6.6</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>50200</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2">
-        <v>44706</v>
+        <v>44726</v>
       </c>
       <c r="G14">
-        <v>14.15</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>15.61</v>
+        <v>6.04</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>1600</v>
+        <v>31600</v>
       </c>
       <c r="M14">
-        <v>1600</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>44741</v>
+        <v>44848</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>17.66</v>
+        <v>5.99</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>9500</v>
+        <v>98100</v>
       </c>
       <c r="M15">
-        <v>9500</v>
+        <v>98100</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>44683</v>
+        <v>44847</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>15.5</v>
+        <v>5.91</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L16">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M16">
-        <v>17929</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>45036</v>
+        <v>44874</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H17">
-        <v>40.88</v>
+        <v>5.27</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L17">
-        <v>92100</v>
+        <v>20200</v>
       </c>
       <c r="M17">
-        <v>19767</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2">
-        <v>44566</v>
+        <v>44679</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>44746</v>
+        <v>44873</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>12.07</v>
+        <v>5.26</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>1599</v>
+        <v>5000</v>
       </c>
       <c r="M18">
-        <v>1599</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2">
-        <v>44655</v>
+        <v>44664</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>44838</v>
+        <v>44706</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="H19">
-        <v>10.48</v>
+        <v>24.34</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L19">
-        <v>1900</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>1900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2">
-        <v>44655</v>
+        <v>44663</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>44838</v>
+        <v>44705</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>4.79</v>
       </c>
       <c r="H20">
-        <v>10.48</v>
+        <v>24.23</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L20">
-        <v>20000</v>
+        <v>1802</v>
       </c>
       <c r="M20">
-        <v>20000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2">
-        <v>44655</v>
+        <v>44664</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="2">
-        <v>44838</v>
+        <v>44820</v>
       </c>
       <c r="G21">
         <v>0.5</v>
       </c>
       <c r="H21">
-        <v>10.48</v>
+        <v>26.69</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L21">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M21">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="2">
-        <v>44838</v>
+        <v>44823</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>10.48</v>
+        <v>25.33</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L22">
-        <v>4800</v>
+        <v>13600</v>
       </c>
       <c r="M22">
-        <v>4800</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2">
-        <v>44655</v>
+        <v>44670</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2">
-        <v>44838</v>
+        <v>44823</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
-        <v>10.48</v>
+        <v>24.85</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="M23">
-        <v>5000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2">
-        <v>44655</v>
+        <v>44664</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2">
-        <v>44838</v>
+        <v>44706</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="H24">
-        <v>10.48</v>
+        <v>26.69</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L24">
-        <v>4700</v>
+        <v>2400</v>
       </c>
       <c r="M24">
-        <v>4700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2">
-        <v>44655</v>
+        <v>44663</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>44838</v>
+        <v>44705</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="H25">
-        <v>10.48</v>
+        <v>26.42</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L25">
-        <v>6300</v>
+        <v>6886</v>
       </c>
       <c r="M25">
-        <v>6300</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>44838</v>
+        <v>44707</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="H26">
-        <v>10.48</v>
+        <v>25.85</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L26">
-        <v>14000</v>
+        <v>6287</v>
       </c>
       <c r="M26">
-        <v>14000</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="2">
-        <v>44838</v>
+        <v>44707</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="H27">
-        <v>10.48</v>
+        <v>25.85</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L27">
-        <v>2500</v>
+        <v>813</v>
       </c>
       <c r="M27">
-        <v>2500</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2">
-        <v>44655</v>
+        <v>44670</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>44838</v>
+        <v>44711</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H28">
-        <v>10.48</v>
+        <v>24.85</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>19500</v>
+        <v>3710</v>
       </c>
       <c r="M28">
-        <v>19500</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
-        <v>44655</v>
+        <v>44670</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>44838</v>
+        <v>45033</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
-        <v>10.48</v>
+        <v>30.79</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L29">
-        <v>4800</v>
+        <v>18200</v>
       </c>
       <c r="M29">
-        <v>4800</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2">
         <v>44655</v>
@@ -1881,39 +1827,39 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G30">
         <v>0.5</v>
       </c>
       <c r="H30">
-        <v>10.48</v>
+        <v>19.11</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L30">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="M30">
-        <v>2700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2">
         <v>44655</v>
@@ -1922,39 +1868,39 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G31">
         <v>0.5</v>
       </c>
       <c r="H31">
-        <v>10.48</v>
+        <v>19.11</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L31">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M31">
-        <v>4000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2">
         <v>44655</v>
@@ -1963,39 +1909,39 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G32">
         <v>0.5</v>
       </c>
       <c r="H32">
-        <v>10.48</v>
+        <v>19.11</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L32">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M32">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2">
         <v>44655</v>
@@ -2004,247 +1950,247 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G33">
         <v>0.5</v>
       </c>
       <c r="H33">
-        <v>10.48</v>
+        <v>19.11</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L33">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="M33">
-        <v>1000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G34">
         <v>0.5</v>
       </c>
       <c r="H34">
-        <v>10.48</v>
+        <v>18.86</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L34">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M34">
-        <v>1900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G35">
         <v>0.5</v>
       </c>
       <c r="H35">
-        <v>10.48</v>
+        <v>18.86</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L35">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M35">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="2">
-        <v>44838</v>
+        <v>45016</v>
       </c>
       <c r="G36">
         <v>0.5</v>
       </c>
       <c r="H36">
-        <v>10.48</v>
+        <v>18.83</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L36">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M36">
-        <v>2400</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>44838</v>
+        <v>45033</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H37">
-        <v>10.48</v>
+        <v>24.45</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>2000</v>
+        <v>25800</v>
       </c>
       <c r="M37">
-        <v>2000</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B38" s="2">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="2">
-        <v>44838</v>
+        <v>44701</v>
       </c>
       <c r="G38">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="H38">
-        <v>10.48</v>
+        <v>43.74</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L38">
-        <v>1000</v>
+        <v>2853</v>
       </c>
       <c r="M38">
-        <v>992</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2">
-        <v>44659</v>
+        <v>44678</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2256,279 +2202,279 @@
         <v>18</v>
       </c>
       <c r="F39" s="2">
-        <v>44701</v>
+        <v>44718</v>
       </c>
       <c r="G39">
-        <v>3.88</v>
+        <v>0.08</v>
       </c>
       <c r="H39">
-        <v>6.6</v>
+        <v>44.14</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L39">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="M39">
-        <v>6000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="2">
-        <v>44712</v>
+        <v>44699</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H40">
-        <v>7.16</v>
+        <v>122.62</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L40">
-        <v>21800</v>
+        <v>59</v>
       </c>
       <c r="M40">
-        <v>21800</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2">
-        <v>44663</v>
+        <v>44652</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="2">
-        <v>44840</v>
+        <v>44693</v>
       </c>
       <c r="G41">
         <v>0.5</v>
       </c>
       <c r="H41">
-        <v>6.06</v>
+        <v>55.66</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L41">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M41">
-        <v>1700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2">
-        <v>44659</v>
+        <v>44652</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>44720</v>
+        <v>44693</v>
       </c>
       <c r="G42">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H42">
-        <v>6.6</v>
+        <v>55.66</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L42">
-        <v>50200</v>
+        <v>700</v>
       </c>
       <c r="M42">
-        <v>50200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B43" s="2">
-        <v>44665</v>
+        <v>44657</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="2">
-        <v>44726</v>
+        <v>44699</v>
       </c>
       <c r="G43">
-        <v>0.1</v>
+        <v>7.85</v>
       </c>
       <c r="H43">
-        <v>6.04</v>
+        <v>44.37</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L43">
-        <v>31600</v>
+        <v>806</v>
       </c>
       <c r="M43">
-        <v>31600</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2">
-        <v>44669</v>
+        <v>44678</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="2">
-        <v>44848</v>
+        <v>44718</v>
       </c>
       <c r="G44">
-        <v>0.1</v>
+        <v>7.32</v>
       </c>
       <c r="H44">
-        <v>5.99</v>
+        <v>45.27</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L44">
-        <v>98100</v>
+        <v>6600</v>
       </c>
       <c r="M44">
-        <v>98100</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B45" s="2">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="2">
-        <v>44847</v>
+        <v>44705</v>
       </c>
       <c r="G45">
-        <v>0.1</v>
+        <v>16.84</v>
       </c>
       <c r="H45">
-        <v>5.91</v>
+        <v>53.59</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L45">
-        <v>9000</v>
+        <v>807</v>
       </c>
       <c r="M45">
-        <v>9000</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B46" s="2">
         <v>44664</v>
@@ -2537,1018 +2483,34 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="2">
-        <v>44820</v>
+        <v>44706</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>15.67</v>
       </c>
       <c r="H46">
-        <v>26.69</v>
+        <v>53.11</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L46">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M46">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1">
-        <v>105</v>
-      </c>
-      <c r="B47" s="2">
-        <v>44669</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2">
-        <v>44823</v>
-      </c>
-      <c r="G47">
-        <v>0.1</v>
-      </c>
-      <c r="H47">
-        <v>25.33</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" t="s">
-        <v>77</v>
-      </c>
-      <c r="L47">
-        <v>13600</v>
-      </c>
-      <c r="M47">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1">
-        <v>112</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44655</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G48">
-        <v>0.5</v>
-      </c>
-      <c r="H48">
-        <v>19.11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48">
-        <v>2100</v>
-      </c>
-      <c r="M48">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1">
-        <v>113</v>
-      </c>
-      <c r="B49" s="2">
-        <v>44655</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G49">
-        <v>0.5</v>
-      </c>
-      <c r="H49">
-        <v>19.11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" t="s">
-        <v>79</v>
-      </c>
-      <c r="L49">
-        <v>2600</v>
-      </c>
-      <c r="M49">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1">
-        <v>114</v>
-      </c>
-      <c r="B50" s="2">
-        <v>44655</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G50">
-        <v>0.5</v>
-      </c>
-      <c r="H50">
-        <v>19.11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L50">
-        <v>1200</v>
-      </c>
-      <c r="M50">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1">
-        <v>115</v>
-      </c>
-      <c r="B51" s="2">
-        <v>44655</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G51">
-        <v>0.5</v>
-      </c>
-      <c r="H51">
-        <v>19.11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" t="s">
-        <v>81</v>
-      </c>
-      <c r="L51">
-        <v>2100</v>
-      </c>
-      <c r="M51">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1">
-        <v>116</v>
-      </c>
-      <c r="B52" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G52">
-        <v>0.5</v>
-      </c>
-      <c r="H52">
-        <v>18.86</v>
-      </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" t="s">
-        <v>82</v>
-      </c>
-      <c r="L52">
-        <v>1500</v>
-      </c>
-      <c r="M52">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1">
-        <v>117</v>
-      </c>
-      <c r="B53" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G53">
-        <v>0.5</v>
-      </c>
-      <c r="H53">
-        <v>18.86</v>
-      </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L53">
-        <v>700</v>
-      </c>
-      <c r="M53">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1">
-        <v>118</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G54">
-        <v>0.5</v>
-      </c>
-      <c r="H54">
-        <v>18.83</v>
-      </c>
-      <c r="I54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" t="s">
-        <v>84</v>
-      </c>
-      <c r="L54">
-        <v>2500</v>
-      </c>
-      <c r="M54">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1">
-        <v>119</v>
-      </c>
-      <c r="B55" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G55">
-        <v>0.5</v>
-      </c>
-      <c r="H55">
-        <v>18.83</v>
-      </c>
-      <c r="I55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55">
-        <v>1500</v>
-      </c>
-      <c r="M55">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1">
-        <v>120</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G56">
-        <v>0.5</v>
-      </c>
-      <c r="H56">
-        <v>18.83</v>
-      </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" t="s">
-        <v>86</v>
-      </c>
-      <c r="L56">
-        <v>1000</v>
-      </c>
-      <c r="M56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1">
-        <v>121</v>
-      </c>
-      <c r="B57" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2">
-        <v>45016</v>
-      </c>
-      <c r="G57">
-        <v>0.5</v>
-      </c>
-      <c r="H57">
-        <v>18.83</v>
-      </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" t="s">
-        <v>87</v>
-      </c>
-      <c r="L57">
-        <v>500</v>
-      </c>
-      <c r="M57">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1">
-        <v>122</v>
-      </c>
-      <c r="B58" s="2">
-        <v>44665</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="2">
-        <v>44707</v>
-      </c>
-      <c r="G58">
-        <v>0.14</v>
-      </c>
-      <c r="H58">
-        <v>24.09</v>
-      </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" t="s">
-        <v>88</v>
-      </c>
-      <c r="L58">
-        <v>600</v>
-      </c>
-      <c r="M58">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1">
-        <v>123</v>
-      </c>
-      <c r="B59" s="2">
-        <v>44665</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="2">
-        <v>44707</v>
-      </c>
-      <c r="G59">
-        <v>0.14</v>
-      </c>
-      <c r="H59">
-        <v>24.09</v>
-      </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" t="s">
-        <v>89</v>
-      </c>
-      <c r="L59">
-        <v>385</v>
-      </c>
-      <c r="M59">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1">
-        <v>124</v>
-      </c>
-      <c r="B60" s="2">
-        <v>44665</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2">
-        <v>44707</v>
-      </c>
-      <c r="G60">
-        <v>0.14</v>
-      </c>
-      <c r="H60">
-        <v>24.09</v>
-      </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L60">
-        <v>1445</v>
-      </c>
-      <c r="M60">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1">
-        <v>125</v>
-      </c>
-      <c r="B61" s="2">
-        <v>44665</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2">
-        <v>44707</v>
-      </c>
-      <c r="G61">
-        <v>0.14</v>
-      </c>
-      <c r="H61">
-        <v>24.09</v>
-      </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" t="s">
-        <v>91</v>
-      </c>
-      <c r="L61">
-        <v>6000</v>
-      </c>
-      <c r="M61">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1">
-        <v>126</v>
-      </c>
-      <c r="B62" s="2">
-        <v>44664</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2">
-        <v>44706</v>
-      </c>
-      <c r="G62">
-        <v>0.14</v>
-      </c>
-      <c r="H62">
-        <v>23.97</v>
-      </c>
-      <c r="I62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" t="s">
-        <v>92</v>
-      </c>
-      <c r="L62">
-        <v>14585</v>
-      </c>
-      <c r="M62">
-        <v>14585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>127</v>
-      </c>
-      <c r="B63" s="2">
-        <v>44664</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="2">
-        <v>44706</v>
-      </c>
-      <c r="G63">
-        <v>0.14</v>
-      </c>
-      <c r="H63">
-        <v>23.97</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" t="s">
         <v>93</v>
-      </c>
-      <c r="L63">
-        <v>12000</v>
-      </c>
-      <c r="M63">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>128</v>
-      </c>
-      <c r="B64" s="2">
-        <v>44663</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="2">
-        <v>44697</v>
-      </c>
-      <c r="G64">
-        <v>0.14</v>
-      </c>
-      <c r="H64">
-        <v>23.49</v>
-      </c>
-      <c r="I64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" t="s">
-        <v>94</v>
-      </c>
-      <c r="L64">
-        <v>6400</v>
-      </c>
-      <c r="M64">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>129</v>
-      </c>
-      <c r="B65" s="2">
-        <v>44663</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="2">
-        <v>44705</v>
-      </c>
-      <c r="G65">
-        <v>0.14</v>
-      </c>
-      <c r="H65">
-        <v>23.49</v>
-      </c>
-      <c r="I65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" t="s">
-        <v>95</v>
-      </c>
-      <c r="L65">
-        <v>5346</v>
-      </c>
-      <c r="M65">
-        <v>5346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2">
-        <v>44663</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2">
-        <v>44705</v>
-      </c>
-      <c r="G66">
-        <v>0.14</v>
-      </c>
-      <c r="H66">
-        <v>23.49</v>
-      </c>
-      <c r="I66" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" t="s">
-        <v>96</v>
-      </c>
-      <c r="L66">
-        <v>297</v>
-      </c>
-      <c r="M66">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2">
-        <v>44669</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2">
-        <v>45033</v>
-      </c>
-      <c r="G67">
-        <v>0.1</v>
-      </c>
-      <c r="H67">
-        <v>24.45</v>
-      </c>
-      <c r="I67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" t="s">
-        <v>97</v>
-      </c>
-      <c r="L67">
-        <v>25800</v>
-      </c>
-      <c r="M67">
-        <v>25800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1">
-        <v>132</v>
-      </c>
-      <c r="B68" s="2">
-        <v>44634</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2">
-        <v>44676</v>
-      </c>
-      <c r="G68">
-        <v>0.03</v>
-      </c>
-      <c r="H68">
-        <v>25.32</v>
-      </c>
-      <c r="I68" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" t="s">
-        <v>98</v>
-      </c>
-      <c r="L68">
-        <v>2485</v>
-      </c>
-      <c r="M68">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1">
-        <v>133</v>
-      </c>
-      <c r="B69" s="2">
-        <v>44657</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2">
-        <v>44699</v>
-      </c>
-      <c r="G69">
-        <v>8.4</v>
-      </c>
-      <c r="H69">
-        <v>122.62</v>
-      </c>
-      <c r="I69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" t="s">
-        <v>99</v>
-      </c>
-      <c r="L69">
-        <v>59</v>
-      </c>
-      <c r="M69">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1">
-        <v>134</v>
-      </c>
-      <c r="B70" s="2">
-        <v>44645</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="2">
-        <v>44687</v>
-      </c>
-      <c r="G70">
-        <v>0.08</v>
-      </c>
-      <c r="H70">
-        <v>96.67</v>
-      </c>
-      <c r="I70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" t="s">
-        <v>100</v>
-      </c>
-      <c r="L70">
-        <v>46362</v>
-      </c>
-      <c r="M70">
-        <v>27400</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/stream-dash/devolucao.xlsx
+++ b/Aluguel/stream-dash/devolucao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="78">
   <si>
     <t>Data</t>
   </si>
@@ -58,15 +58,12 @@
     <t>MERRILL LYNCH S/A CTVM</t>
   </si>
   <si>
-    <t>TULLETT PREBON BRASIL CVC LTDA.</t>
+    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
   </si>
   <si>
     <t>BTG PACTUAL CTVM S/A</t>
   </si>
   <si>
-    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
-  </si>
-  <si>
     <t>ITAU CV S/A</t>
   </si>
   <si>
@@ -76,142 +73,136 @@
     <t>TD</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>BIDI11</t>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>IVVB11</t>
+    <t>ELET6</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
     <t>PETZ3</t>
   </si>
   <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>SMAL11</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>2022042500344509170001-1</t>
-  </si>
-  <si>
-    <t>2022042600344641690001-1</t>
-  </si>
-  <si>
-    <t>2022040500340864590001-1</t>
-  </si>
-  <si>
-    <t>2022040500340864640001-1</t>
-  </si>
-  <si>
-    <t>2022040400340680610001-1</t>
-  </si>
-  <si>
-    <t>2022041200342109570001-1</t>
-  </si>
-  <si>
-    <t>2022033000339841070001-1</t>
-  </si>
-  <si>
-    <t>2022040400333128960001-2</t>
-  </si>
-  <si>
-    <t>2022042700345517390001-1</t>
-  </si>
-  <si>
-    <t>2022040400340607540001-1</t>
-  </si>
-  <si>
-    <t>2022041200342106330001-1</t>
-  </si>
-  <si>
-    <t>2022040800341739040001-1</t>
-  </si>
-  <si>
-    <t>2022041400342805710001-1</t>
-  </si>
-  <si>
-    <t>2022041800343242310001-1</t>
-  </si>
-  <si>
-    <t>2022041900343459170001-1</t>
-  </si>
-  <si>
-    <t>2022042700345455480001-1</t>
-  </si>
-  <si>
-    <t>2022042800345720870001-1</t>
-  </si>
-  <si>
-    <t>2022041300342557920001-1</t>
-  </si>
-  <si>
-    <t>2022041200342348820001-1</t>
-  </si>
-  <si>
-    <t>2022041300342579090001-1</t>
-  </si>
-  <si>
-    <t>2022041800343242330001-1</t>
-  </si>
-  <si>
-    <t>2022041900343516610001-1</t>
-  </si>
-  <si>
-    <t>2022041300342557910001-1</t>
-  </si>
-  <si>
-    <t>2022041200342243870001-1</t>
-  </si>
-  <si>
-    <t>2022041400342849080001-1</t>
-  </si>
-  <si>
-    <t>2022041400342849100001-1</t>
-  </si>
-  <si>
-    <t>2022041900343484510001-1</t>
-  </si>
-  <si>
-    <t>2022041900343269790001-1</t>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>2022071100361594430001-1</t>
+  </si>
+  <si>
+    <t>2022071800362965720001-1</t>
+  </si>
+  <si>
+    <t>2022051300349887350001-1</t>
+  </si>
+  <si>
+    <t>2022071400355183190001-2</t>
+  </si>
+  <si>
+    <t>2022070700353598860001-2</t>
+  </si>
+  <si>
+    <t>2022070700353598890001-2</t>
+  </si>
+  <si>
+    <t>2022070700353598910001-2</t>
+  </si>
+  <si>
+    <t>2022070600360799270001-1</t>
+  </si>
+  <si>
+    <t>2022062900359269050001-1</t>
+  </si>
+  <si>
+    <t>2022063000359469450001-1</t>
+  </si>
+  <si>
+    <t>2022061500356575900001-1</t>
+  </si>
+  <si>
+    <t>2022071100361612410001-1</t>
+  </si>
+  <si>
+    <t>2022041400342802340001-1</t>
+  </si>
+  <si>
+    <t>2022041400342802380001-1</t>
+  </si>
+  <si>
+    <t>2022041400342802410001-1</t>
+  </si>
+  <si>
+    <t>2022042000343721270001-1</t>
+  </si>
+  <si>
+    <t>2022071800362775450001-1</t>
+  </si>
+  <si>
+    <t>2022071800362778320001-1</t>
+  </si>
+  <si>
+    <t>2022071800363097780001-1</t>
+  </si>
+  <si>
+    <t>2022052400352075390001-1</t>
+  </si>
+  <si>
+    <t>2022070800361300320001-1</t>
+  </si>
+  <si>
+    <t>2022071400362249440001-1</t>
+  </si>
+  <si>
+    <t>2022071400362249560001-1</t>
+  </si>
+  <si>
+    <t>2022071400362249580001-1</t>
+  </si>
+  <si>
+    <t>2022071400362249890001-1</t>
+  </si>
+  <si>
+    <t>2022071400362250030001-1</t>
+  </si>
+  <si>
+    <t>2022071100361612520001-1</t>
+  </si>
+  <si>
+    <t>2022062900359342180001-1</t>
+  </si>
+  <si>
+    <t>2022070100359870210001-1</t>
+  </si>
+  <si>
+    <t>2022062800359060450001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607060001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607080001-1</t>
+  </si>
+  <si>
+    <t>2022040400340607090001-1</t>
   </si>
   <si>
     <t>2022040400340607390001-1</t>
@@ -235,34 +226,28 @@
     <t>2022040100340230510001-1</t>
   </si>
   <si>
-    <t>2022041800343242360001-1</t>
-  </si>
-  <si>
-    <t>2022040800334338900001-2</t>
-  </si>
-  <si>
-    <t>2022042700345489660001-1</t>
-  </si>
-  <si>
-    <t>2022040600341185990001-1</t>
-  </si>
-  <si>
-    <t>2022040100340229550001-1</t>
-  </si>
-  <si>
-    <t>2022040100340230320001-1</t>
-  </si>
-  <si>
-    <t>2022040600341194280001-1</t>
-  </si>
-  <si>
-    <t>2022042700345489210001-1</t>
-  </si>
-  <si>
-    <t>2022041200342190630001-1</t>
-  </si>
-  <si>
-    <t>2022041300342376540001-1</t>
+    <t>2022052000351504470001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621750001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621760001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621770001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621780001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621790001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621800001-1</t>
+  </si>
+  <si>
+    <t>2022063000359621810001-1</t>
   </si>
 </sst>
 </file>
@@ -624,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44676</v>
+        <v>44753</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -682,31 +667,31 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>44714</v>
+        <v>44791</v>
       </c>
       <c r="G2">
-        <v>0.12</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="H2">
-        <v>19.18</v>
+        <v>12.37</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>3992</v>
+        <v>5400</v>
       </c>
       <c r="M2">
-        <v>3992</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -714,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44677</v>
+        <v>44760</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -723,39 +708,39 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>44715</v>
+        <v>44798</v>
       </c>
       <c r="G3">
-        <v>8.34</v>
+        <v>5.7</v>
       </c>
       <c r="H3">
-        <v>16.95</v>
+        <v>12.11</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L3">
-        <v>3200</v>
+        <v>8472</v>
       </c>
       <c r="M3">
-        <v>3200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44656</v>
+        <v>44694</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -764,31 +749,31 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>44838</v>
+        <v>44917</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>2.77</v>
+        <v>101.14</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>63500</v>
+        <v>400</v>
       </c>
       <c r="M4">
-        <v>63500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -796,171 +781,171 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44656</v>
+        <v>44756</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>44838</v>
+        <v>44796</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H5">
-        <v>2.77</v>
+        <v>34.24</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L5">
-        <v>24900</v>
+        <v>900</v>
       </c>
       <c r="M5">
-        <v>4919</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44655</v>
+        <v>44749</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>44741</v>
+        <v>44789</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>5.08</v>
       </c>
       <c r="H6">
-        <v>17.66</v>
+        <v>33.99</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L6">
-        <v>9500</v>
+        <v>2149</v>
       </c>
       <c r="M6">
-        <v>9500</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44663</v>
+        <v>44749</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>44683</v>
+        <v>44789</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>5.08</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>33.99</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L7">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="M7">
-        <v>1220</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>44650</v>
+        <v>44749</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>45015</v>
+        <v>44789</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>5.08</v>
       </c>
       <c r="H8">
-        <v>10.85</v>
+        <v>33.99</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L8">
-        <v>354900</v>
+        <v>1314</v>
       </c>
       <c r="M8">
-        <v>253800</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>44655</v>
+        <v>44748</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -969,39 +954,39 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>44697</v>
+        <v>44788</v>
       </c>
       <c r="G9">
-        <v>0.61</v>
+        <v>4.84</v>
       </c>
       <c r="H9">
-        <v>231.84</v>
+        <v>35.14</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L9">
-        <v>301</v>
+        <v>1300</v>
       </c>
       <c r="M9">
-        <v>301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>44678</v>
+        <v>44741</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1010,80 +995,80 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>44718</v>
+        <v>44781</v>
       </c>
       <c r="G10">
-        <v>2.32</v>
+        <v>1.34</v>
       </c>
       <c r="H10">
-        <v>7.48</v>
+        <v>39.51</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L10">
-        <v>9009</v>
+        <v>800</v>
       </c>
       <c r="M10">
-        <v>3400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44655</v>
+        <v>44742</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>44712</v>
+        <v>44782</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1.34</v>
       </c>
       <c r="H11">
-        <v>7.16</v>
+        <v>38.8</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L11">
-        <v>21800</v>
+        <v>1500</v>
       </c>
       <c r="M11">
-        <v>21800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>44663</v>
+        <v>44727</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1092,39 +1077,39 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>44840</v>
+        <v>44838</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>6.06</v>
+        <v>41.49</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L12">
-        <v>1700</v>
+        <v>6600</v>
       </c>
       <c r="M12">
-        <v>1700</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1133,36 +1118,36 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>44720</v>
+        <v>44791</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>6.6</v>
+        <v>34.65</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L13">
-        <v>50200</v>
+        <v>400</v>
       </c>
       <c r="M13">
-        <v>50200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>44665</v>
@@ -1174,39 +1159,39 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>44726</v>
+        <v>44845</v>
       </c>
       <c r="G14">
         <v>0.1</v>
       </c>
       <c r="H14">
-        <v>6.04</v>
+        <v>2.11</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L14">
-        <v>31600</v>
+        <v>10600</v>
       </c>
       <c r="M14">
-        <v>31600</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>44669</v>
+        <v>44665</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1215,39 +1200,39 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>44848</v>
+        <v>44845</v>
       </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
-        <v>5.99</v>
+        <v>2.11</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L15">
-        <v>98100</v>
+        <v>6400</v>
       </c>
       <c r="M15">
-        <v>98100</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1256,39 +1241,39 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>44847</v>
+        <v>44845</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="H16">
-        <v>5.91</v>
+        <v>2.11</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L16">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M16">
-        <v>9000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>44678</v>
+        <v>44671</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1297,162 +1282,162 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>44874</v>
+        <v>44845</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
-        <v>5.27</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L17">
-        <v>20200</v>
+        <v>26400</v>
       </c>
       <c r="M17">
-        <v>20200</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>44679</v>
+        <v>44760</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>44873</v>
+        <v>44798</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>7.75</v>
       </c>
       <c r="H18">
-        <v>5.26</v>
+        <v>6.62</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L18">
-        <v>5000</v>
+        <v>22967</v>
       </c>
       <c r="M18">
-        <v>5000</v>
+        <v>22967</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>44664</v>
+        <v>44760</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="G19">
-        <v>4.81</v>
+        <v>7.75</v>
       </c>
       <c r="H19">
-        <v>24.34</v>
+        <v>6.62</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>38449</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>38449</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>44663</v>
+        <v>44760</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>44705</v>
+        <v>44798</v>
       </c>
       <c r="G20">
-        <v>4.79</v>
+        <v>7.75</v>
       </c>
       <c r="H20">
-        <v>24.23</v>
+        <v>6.62</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L20">
-        <v>1802</v>
+        <v>14200</v>
       </c>
       <c r="M20">
-        <v>600</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>44664</v>
+        <v>44705</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1461,326 +1446,326 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>44820</v>
+        <v>44881</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H21">
-        <v>26.69</v>
+        <v>12.04</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>44669</v>
+        <v>44750</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>44823</v>
+        <v>44790</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>3.09</v>
       </c>
       <c r="H22">
-        <v>25.33</v>
+        <v>12.64</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L22">
-        <v>13600</v>
+        <v>7700</v>
       </c>
       <c r="M22">
-        <v>13600</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>44670</v>
+        <v>44756</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>44823</v>
+        <v>44796</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H23">
-        <v>24.85</v>
+        <v>13.14</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L23">
-        <v>4100</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>4100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>44664</v>
+        <v>44756</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>44706</v>
+        <v>44796</v>
       </c>
       <c r="G24">
-        <v>0.09</v>
+        <v>2.7</v>
       </c>
       <c r="H24">
-        <v>26.69</v>
+        <v>13.14</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L24">
-        <v>2400</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>2400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>44663</v>
+        <v>44756</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>44705</v>
+        <v>44796</v>
       </c>
       <c r="G25">
-        <v>0.09</v>
+        <v>2.7</v>
       </c>
       <c r="H25">
-        <v>26.42</v>
+        <v>13.14</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L25">
-        <v>6886</v>
+        <v>600</v>
       </c>
       <c r="M25">
-        <v>6886</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>44665</v>
+        <v>44756</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>44707</v>
+        <v>44796</v>
       </c>
       <c r="G26">
-        <v>0.09</v>
+        <v>2.7</v>
       </c>
       <c r="H26">
-        <v>25.85</v>
+        <v>13.14</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L26">
-        <v>6287</v>
+        <v>500</v>
       </c>
       <c r="M26">
-        <v>6287</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>44665</v>
+        <v>44756</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>44707</v>
+        <v>44796</v>
       </c>
       <c r="G27">
-        <v>0.09</v>
+        <v>2.7</v>
       </c>
       <c r="H27">
-        <v>25.85</v>
+        <v>13.14</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L27">
-        <v>813</v>
+        <v>400</v>
       </c>
       <c r="M27">
-        <v>813</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>44670</v>
+        <v>44753</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>44711</v>
+        <v>44791</v>
       </c>
       <c r="G28">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H28">
-        <v>24.85</v>
+        <v>12.63</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L28">
-        <v>3710</v>
+        <v>800</v>
       </c>
       <c r="M28">
-        <v>3710</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>44670</v>
+        <v>44741</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1789,118 +1774,118 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>45033</v>
+        <v>44774</v>
       </c>
       <c r="G29">
         <v>0.1</v>
       </c>
       <c r="H29">
-        <v>30.79</v>
+        <v>11.74</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L29">
-        <v>18200</v>
+        <v>1200</v>
       </c>
       <c r="M29">
-        <v>5900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>44655</v>
+        <v>44743</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>45016</v>
+        <v>44783</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H30">
-        <v>19.11</v>
+        <v>46.5</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L30">
-        <v>2100</v>
+        <v>7100</v>
       </c>
       <c r="M30">
-        <v>2100</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>44655</v>
+        <v>44740</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>45016</v>
+        <v>44778</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H31">
-        <v>19.11</v>
+        <v>45.2</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L31">
-        <v>2600</v>
+        <v>9052</v>
       </c>
       <c r="M31">
-        <v>2600</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>44655</v>
@@ -1912,36 +1897,36 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G32">
         <v>0.5</v>
       </c>
       <c r="H32">
-        <v>19.11</v>
+        <v>10.48</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L32">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="M32">
-        <v>1200</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>44655</v>
@@ -1953,39 +1938,39 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G33">
         <v>0.5</v>
       </c>
       <c r="H33">
-        <v>19.11</v>
+        <v>10.48</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L33">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="M33">
-        <v>2100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1994,39 +1979,39 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>45016</v>
+        <v>44838</v>
       </c>
       <c r="G34">
         <v>0.5</v>
       </c>
       <c r="H34">
-        <v>18.86</v>
+        <v>10.48</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L34">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="M34">
-        <v>1500</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2035,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2">
         <v>45016</v>
@@ -2044,30 +2029,30 @@
         <v>0.5</v>
       </c>
       <c r="H35">
-        <v>18.86</v>
+        <v>19.11</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L35">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="M35">
-        <v>700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2076,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
         <v>45016</v>
@@ -2085,30 +2070,30 @@
         <v>0.5</v>
       </c>
       <c r="H36">
-        <v>18.83</v>
+        <v>19.11</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L36">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M36">
-        <v>2133</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
-        <v>44669</v>
+        <v>44655</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2117,159 +2102,159 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>45033</v>
+        <v>45016</v>
       </c>
       <c r="G37">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>24.45</v>
+        <v>19.11</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L37">
-        <v>25800</v>
+        <v>1200</v>
       </c>
       <c r="M37">
-        <v>25100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2">
-        <v>44659</v>
+        <v>44655</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>44701</v>
+        <v>45016</v>
       </c>
       <c r="G38">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>43.74</v>
+        <v>19.11</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L38">
-        <v>2853</v>
+        <v>2100</v>
       </c>
       <c r="M38">
-        <v>2853</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2">
-        <v>44678</v>
+        <v>44651</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2">
-        <v>44718</v>
+        <v>45016</v>
       </c>
       <c r="G39">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="H39">
-        <v>44.14</v>
+        <v>18.86</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L39">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M39">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>44699</v>
+        <v>45016</v>
       </c>
       <c r="G40">
-        <v>8.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>122.62</v>
+        <v>18.86</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L40">
-        <v>59</v>
+        <v>700</v>
       </c>
       <c r="M40">
-        <v>59</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2">
         <v>44652</v>
@@ -2281,39 +2266,39 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>44693</v>
+        <v>45016</v>
       </c>
       <c r="G41">
         <v>0.5</v>
       </c>
       <c r="H41">
-        <v>55.66</v>
+        <v>18.83</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L41">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="M41">
-        <v>1400</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2">
-        <v>44652</v>
+        <v>44701</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2322,195 +2307,318 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>44693</v>
+        <v>44911</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>55.66</v>
+        <v>10.35</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L42">
-        <v>700</v>
+        <v>9800</v>
       </c>
       <c r="M42">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2">
-        <v>44657</v>
+        <v>44742</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>44699</v>
+        <v>44795</v>
       </c>
       <c r="G43">
-        <v>7.85</v>
+        <v>0.1</v>
       </c>
       <c r="H43">
-        <v>44.37</v>
+        <v>41.8</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L43">
-        <v>806</v>
+        <v>465</v>
       </c>
       <c r="M43">
-        <v>806</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2">
-        <v>44678</v>
+        <v>44742</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>44718</v>
+        <v>44795</v>
       </c>
       <c r="G44">
-        <v>7.32</v>
+        <v>0.1</v>
       </c>
       <c r="H44">
-        <v>45.27</v>
+        <v>41.8</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L44">
-        <v>6600</v>
+        <v>600</v>
       </c>
       <c r="M44">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B45" s="2">
-        <v>44663</v>
+        <v>44742</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>44705</v>
+        <v>44795</v>
       </c>
       <c r="G45">
-        <v>16.84</v>
+        <v>0.1</v>
       </c>
       <c r="H45">
-        <v>53.59</v>
+        <v>41.8</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L45">
-        <v>807</v>
+        <v>700</v>
       </c>
       <c r="M45">
-        <v>807</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2">
-        <v>44664</v>
+        <v>44742</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2">
-        <v>44706</v>
+        <v>44795</v>
       </c>
       <c r="G46">
-        <v>15.67</v>
+        <v>0.1</v>
       </c>
       <c r="H46">
-        <v>53.11</v>
+        <v>41.8</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L46">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="M46">
-        <v>93</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>176</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44795</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+      <c r="H47">
+        <v>41.8</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47">
+        <v>2500</v>
+      </c>
+      <c r="M47">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>177</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
+        <v>44795</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+      <c r="H48">
+        <v>41.8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48">
+        <v>1000</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>178</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44795</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="H49">
+        <v>41.8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49">
+        <v>1400</v>
+      </c>
+      <c r="M49">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
